--- a/Brother.xlsx
+++ b/Brother.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BrotherModels" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="BrotherToners" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="963">
   <si>
     <t>dcp-1000</t>
   </si>
@@ -2622,24 +2623,12 @@
     <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j870dw</t>
   </si>
   <si>
-    <t>mfc-j870dw-650</t>
-  </si>
-  <si>
-    <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j870dw-650</t>
-  </si>
-  <si>
     <t>mfc-j875dw</t>
   </si>
   <si>
     <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j875dw</t>
   </si>
   <si>
-    <t>mfc-j875dw-650</t>
-  </si>
-  <si>
-    <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j875dw-650</t>
-  </si>
-  <si>
     <t>mfcl2680w</t>
   </si>
   <si>
@@ -2782,12 +2771,162 @@
   </si>
   <si>
     <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/ppf/ppf-580mc</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Value Pack includes one of each color.  Black TN115BK, cyan TN115C, magenta TN115M, and yellow TN115Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother cyan toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother magenta toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield toner for DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6750DW, MFC-L6800DW. </t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for use in HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn.</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield magenta toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield cyan toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield black toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield black toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield toner value pack for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. Contains one of each color. Black TN336BK, cyan TN336C, magenta TN366M, yellow TN336Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield yellow toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield black toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield toner value pack for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW. Contains one of each color. Black TN433BK, Cyan TN433C, Magenta TN433M, Yellow TN433Y.</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield toner value pack for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. Contains one of each color. Black TN336BK, cyan TN336C, magenta TN366M, yellow TN336Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother super high-yield toner for HL-L6200DW, HL-L6250DW, HL-L6200DWT, HL-L6300DW, HL-L6400DWT, HL-L6400DW, HL-L6400DWT, MFC-L5700, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW. </t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t>Premium compatible toner for Brother HL-L6400DW, HL-L6400DWT, HL-L6900DW, MFC-L6900DW.</t>
+  </si>
+  <si>
+    <t>Premium compatible super high-yield toner for Brother HL-L6200DW, HL-L6250DW, HL-L6200DWT, HL-L6300DW, HL-L6400DWT, HL-L6400DW, HL-L6400DWT, MFC-L5700, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW. Contains 3 compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) magenta ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother black high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>Genuine Brother black super high-yield ink for MFCJ5520DW, MFCJ5620DW, MFCJ5720DW.</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) cyan ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother cyan super high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Genuine Brother Black XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Premium compatible super high-yield XXL Series magenta ink for use in Brother MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) yellow ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible yellow XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible magenta XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
+  </si>
+  <si>
+    <t>Genuine Brother black ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) black ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw. Contains 2 black LC107BK.</t>
+  </si>
+  <si>
+    <t>Genuine Brother black ultra high-yield ink cartridge for MFC-J6520DW, MFC-J6720DW, MFC-J6920DW.</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ultra high-yield ink cartridge for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
+  </si>
+  <si>
+    <t>Genuine Brother black ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
+  </si>
+  <si>
+    <t>mfc-j870dw-656</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j870dw-656</t>
+  </si>
+  <si>
+    <t>mfc-j875dw-656</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j875dw-656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2817,8 +2956,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3096,389 +3236,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I415" sqref="I415"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" s="1">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>939</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>940</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D7" s="1">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>943</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>944</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>945</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>946</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>947</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>948</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>949</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>950</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>951</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>952</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>953</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>954</v>
+      </c>
+      <c r="D20" s="1">
+        <v>68.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>922</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>923</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>924</v>
+      </c>
+      <c r="D23" s="1">
+        <v>103.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D24" s="1">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>926</v>
+      </c>
+      <c r="D25" s="1">
+        <v>89.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>927</v>
+      </c>
+      <c r="D26" s="1">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>928</v>
+      </c>
+      <c r="D27" s="1">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>929</v>
+      </c>
+      <c r="D28" s="1">
+        <v>520.55999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>930</v>
+      </c>
+      <c r="D29" s="1">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>931</v>
+      </c>
+      <c r="D30" s="1">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>932</v>
+      </c>
+      <c r="D31" s="1">
+        <v>51.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>933</v>
+      </c>
+      <c r="D32" s="1">
+        <v>184.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>934</v>
+      </c>
+      <c r="D33" s="1">
+        <v>206.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>935</v>
+      </c>
+      <c r="D34" s="1">
+        <v>167.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>936</v>
+      </c>
+      <c r="D35" s="1">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>937</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>938</v>
+      </c>
+      <c r="D37" s="1">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>915</v>
+      </c>
+      <c r="D38" s="1">
+        <v>178.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>914</v>
+      </c>
+      <c r="D39" s="1">
+        <v>178.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>916</v>
+      </c>
+      <c r="D40" s="1">
+        <v>133.58000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>915</v>
+      </c>
+      <c r="D41" s="1">
+        <v>95.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>917</v>
+      </c>
+      <c r="D42" s="1">
+        <v>537.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>916</v>
+      </c>
+      <c r="D43" s="1">
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>918</v>
+      </c>
+      <c r="D44" s="1">
+        <v>82.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>919</v>
+      </c>
+      <c r="D45" s="1">
+        <v>82.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>920</v>
+      </c>
+      <c r="D46" s="1">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>921</v>
+      </c>
+      <c r="D47" s="1">
+        <v>368.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -6560,218 +6989,218 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>864</v>
+        <v>959</v>
       </c>
       <c r="B433" t="s">
-        <v>865</v>
+        <v>960</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B434" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>868</v>
+        <v>961</v>
       </c>
       <c r="B435" t="s">
-        <v>869</v>
+        <v>962</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B436" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B437" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B438" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B439" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B440" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B441" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B442" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B443" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B444" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B445" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B446" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B447" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B448" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B449" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B450" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B451" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B452" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B453" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B454" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B455" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B456" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B457" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B458" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B459" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -6780,6 +7209,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Brother.xlsx
+++ b/Brother.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="2020">
   <si>
     <t>dcp-1000</t>
   </si>
@@ -2773,138 +2773,2169 @@
     <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/ppf/ppf-580mc</t>
   </si>
   <si>
+    <t>LC51Y Genuine Brother Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Use Innobella inks for long lasting, brilliant printouts of photos and documents. Four-cartridge ink system allows you to change only those that are needed. Robust ink delivery for demanding print applications.</t>
+  </si>
+  <si>
+    <t>DR400 Premium Compatible Drum Cartridge Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP1200, DCP1400, MFCp2500,  MFC8300,  MFC8500,  MFC8600,  MFC8700,  MFC9600,  MFC9700,  MFC9800. This compatible laser drum cartridge delivers OEM quality without the OEM price. Achieve the utmost clarity in text and image reproduction. Installs easily, saving time and energy.</t>
+  </si>
+  <si>
+    <t>DR400 Genuine Brother Drum Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP1200, DCP1400, MFCp2500,  MFC8300,  MFC8500,  MFC8600,  MFC8700,  MFC9600,  MFC9700,  MFC9800.</t>
+  </si>
+  <si>
+    <t>LC61 Premium Compatible Ink Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible ink Value Pack for Brother DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.  Value pack includes one of each.  Black LC61BK, Cyan LC61C, Magenta LC61M, and Yellow LC61Y.</t>
+  </si>
+  <si>
+    <t>LC61Y Premium Compatible Ink Cartridge, 500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow ink for Brother DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC61C Genuine Brother Ink Cartridge, 500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC613PKS Genuine Brother Ink Cartridge, 500 Page-Yield, Box of 3, Tri-Color</t>
+  </si>
+  <si>
+    <t>Genuine Brother color inkjet s for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC61Y Genuine Brother Ink Cartridge, 500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>DR350 Genuine Brother Drum Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP7020, Fax 2820, 2930, HL2040, HL2070n, MFC7220, MFC7225n, MFC7420, MFC7820n.</t>
+  </si>
+  <si>
+    <t>DR350 Premium Compatible Drum Cartridge Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP7020, Fax 2820, 2930, HL2040, HL2070n, MFC7220, MFC7225n, MFC7420, MFC7820n. Less downtime with regular replacement of crucial parts. Keeps image production crisp and clean. Designed to work flawlessly with your printer.</t>
+  </si>
+  <si>
+    <t>TN350 Genuine Brother Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP7020, Fax 2820, 2930, HL2040, HL2070n, MFC7220, MFC7225n, MFC7420, MFC7820n. Each cartridge will perform when your requirements are most demanding. Every cartridge produces clear, sharp and professional printing results. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN350 Premium Compatible Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP7020, Fax 2820, 2930, HL2040, HL2070n, MFC7220, MFC7225n, MFC7420, MFC7820n. Prints cleanly from the first page to the last. Installs quickly and easily, reducing downtime. Quick and simple to use.</t>
+  </si>
+  <si>
+    <t>LC61BK Genuine Brother Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC61M Premium Compatible Ink Cartridge, 500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta ink for Brother DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC612PKS Genuine Brother Ink Cartridge, 500 Page-Yield, Box of 2, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet s for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC61C Premium Compatible Ink Cartridge, 500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan ink for Brother DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>LC61BK Premium Compatible Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black ink for Brother DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>TN430 Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP1200, DCP1400, MFCp2500, MFC8300, MFC8500, MFC8600, MFC8700, MFC9600, MFC9700, MFC9800, HL 1230, 1240, 1250, 1270N, 1440, 1450, 1470N. Increase productivity and reduce costs when each cartridge delivers value and dependability. Brother ensures that each cartridge meets the highest-quality of standards, which means you'll always be satisfied. Each cartridge offers a fine quality that everyone should experience.</t>
+  </si>
+  <si>
+    <t>TN460 Premium Compatible High-Yield Toner Cartridge 6000 Page-Yield, Box of 3, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP1200, DCP1400, MFCp2500, MFC8300, MFC8500, MFC8600, MFC8700, MFC9600, MFC9700, MFC9800, HL 1230, HL 1240, HL 1250, HL 1270N, HL 1440, HL 1450, HL 1470N. Contains 3 compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>TN460 Premium Compatible High-Yield Toner Cartridge 6000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP1200, DCP1400, MFCp2500, MFC8300, MFC8500, MFC8600, MFC8700, MFC9600, MFC9700, MFC9800, HL 1230, 1240, 1250, 1270N, 1440, 1450, 1470N. Enjoy the fine lines and sharp edges from the first page to the last. Reliable and dependable so that you can count on it when you need it most. Creates sharp black lines and clean results.</t>
+  </si>
+  <si>
+    <t>TN460 Genuine Brother High-Yield Toner Cartridge, 6000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>LC51M Genuine Brother Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, 1860c, 1960c, 2480c, 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Use Innobella inks for long lasting, brilliant printouts of photos and documents. Four-cartridge ink system allows you to change only those that are needed. Robust ink delivery for demanding print applications.</t>
+  </si>
+  <si>
+    <t>LC51C Genuine Brother Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Use Innobella inks for long lasting, brilliant printouts of photos and documents. Four-cartridge ink system allows you to change only those that are needed. Robust ink delivery for demanding print applications.</t>
+  </si>
+  <si>
+    <t>LC513PKS Genuine Brother Ink Cartridge, 400 Page-Yield, Box of 3, Tri-Color</t>
+  </si>
+  <si>
+    <t>Genuine Brother Tri color inkjet for Fax 1360, 1860c, 1960c, 2480c, MFC240c, MFC440cn, MFC665cw, MFC845cw, MFC3360c, MFC5460cn. Adds a professional look and feel to any document. Designed to use ink effectively, saving money between cartridges. Simple to install for error-free loading.</t>
+  </si>
+  <si>
+    <t>LC41M Genuine Brother Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for Fax Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Replace only the empty cartridges with the four-cartridge ink system. Shelf life is ensured to be longer with hermetically sealed packaging. A constant, high-quality performance is a benefit all can enjoy when using Brother ink cartridges.</t>
+  </si>
+  <si>
+    <t>LC41C Genuine Brother Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Replace only the empty cartridges with the four-cartridge ink system. Shelf life is ensured to be longer with hermetically sealed packaging. A constant, high-quality performance is a benefit all can enjoy when using Brother ink cartridges.</t>
+  </si>
+  <si>
+    <t>LC51BK Genuine Brother Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Use Innobella inks for long lasting, brilliant printouts of photos and documents. Four-cartridge ink system allows you to change only those that are needed. Robust ink delivery for demanding print applications.</t>
+  </si>
+  <si>
+    <t>LC41BK Genuine Brother Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Replace only the empty cartridges with the four-cartridge ink system. Shelf life is ensured to be longer with hermetically sealed packaging. A constant, high-quality performance is a benefit all can enjoy when using Brother ink cartridges.</t>
+  </si>
+  <si>
+    <t>LC41Y Genuine Brother Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for Fax Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Replace only the empty cartridges with the four-cartridge ink system. Shelf life is ensured to be longer with hermetically sealed packaging. A constant, high-quality performance is a benefit all can enjoy when using Brother ink cartridges.</t>
+  </si>
+  <si>
+    <t>LC41Y Premium Compatible Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow inkjet for Brother Fax Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Choose Innovera: It delivers the performance you demand with the savings you deserve. Fine-tuned cartridge produces even ink distribution for clean printing. Easy to install and replace.</t>
+  </si>
+  <si>
+    <t>LC41M Premium Compatible Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta inkjet for Brother Fax Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Choose Innovera: It delivers the performance you demand with the savings you deserve. Fine-tuned cartridge produces even ink distribution for clean printing. Easy to install and replace.</t>
+  </si>
+  <si>
+    <t>LC51Y Premium Compatible Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow inkjet for Brother DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.   Create page after page without worrying about clogging. Prints are on a par with OEM cartridges for a fraction of the cost. Simple installation means that you save time and money.</t>
+  </si>
+  <si>
+    <t>LC51M Premium Compatible Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta inkjet for Brother DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Create page after page without worrying about clogging. Prints are on a par with OEM cartridges for a fraction of the cost. Simple installation means that you save time and money.</t>
+  </si>
+  <si>
+    <t>DR250 Premium Compatible Drum Cartridge Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP1000, MFC4800, MFC6800. You can rely on this compatible drum cartridge to keep your printer running smoothly. Provides superior transfer quality for crisp imaging. Designed for easy installation to minimize your downtime.</t>
+  </si>
+  <si>
+    <t>DR250 Genuine Brother Drum Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP1000, MFC4800, MFC6800.</t>
+  </si>
+  <si>
+    <t>TN250 Genuine Brother Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP1000, MFC4800, MFC6800, PPF2800, PPF2900, PPF3800.</t>
+  </si>
+  <si>
+    <t>LC512PKS Genuine Brother Ink Cartridge, 500 Page-Yield, Box of 2, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for Fax 1360, 1860c, 1960c, 2480c, MFC240c, MFC440cn, MFC665cw, MFC845cw, MFC3360c, MFC5460cn. Defined lines and smooth edges add class to any presentation. Prints page after page of high-quality documents. Designed to handle the toughest tasks with ease.</t>
+  </si>
+  <si>
+    <t>LC41BK Premium Compatible Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible inkjet for Brother Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Choose Innovera: It delivers the performance you demand with the savings you deserve. Fine-tuned cartridge produces even ink distribution for clean printing. Easy to install and replace.</t>
+  </si>
+  <si>
+    <t>LC41C Premium Compatible Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan inkjet for Brother Intellifax 1840c, Intellifax 1940cn, Intellifax 2440c, MFC210c, MFC420cn, MFC620cn, MFC3240c, MFC3340cn, MFC5440cn, MFC5840cn. Choose Innovera: It delivers the performance you demand with the savings you deserve. Fine-tuned cartridge produces even ink distribution for clean printing. Easy to install and replace.</t>
+  </si>
+  <si>
+    <t>LC51C Premium Compatible Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan inkjet for Brother DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Create page after page without worrying about clogging. Prints are on a par with OEM cartridges for a fraction of the cost. Simple installation means that you save time and money.</t>
+  </si>
+  <si>
+    <t>LC51BK Premium Compatible Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black inkjet for Brother DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Create page after page without worrying about clogging. Prints are on a par with OEM cartridges for a fraction of the cost. Simple installation means that you save time and money.</t>
+  </si>
+  <si>
+    <t>TN250 Premium Compatible Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP1000hl, DCP1040hl, DCP1050hl, DCP1060hl, DCP1070hl, DCP700hl, DCP720hl, DCP730hl, DCP760hl, DCP820, Intellifax 2550m, Intellifax 2600, Intellifax 2750, Intellifax 2800, Intellifax 2900, Intellifax 3550, Intellifax 3650, Intellifax 3750, Intellifax 3800, Intellifax 8000, Intellifax 8050, Intellifax 8060, Intellifax 8200, Intellifax 8250, Intellifax 8650p, MFC4300, MFC4350, MFC4450, MFC4550, MFC 4650, MFC4800, MFC 6550, MFC6650, MFC6800, MFC7550, MFC7650, MFC7750, MFC9050, MFC9060, MFC9500, MFC9550.</t>
+  </si>
+  <si>
+    <t>LC51 Premium Compatible Ink Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible inkjet for Value Pack for Brother DCP130c, DCP330c, DCP350c, DCP540cn, DCP560cn, DCP750cn, DCP770cw, Intellifax 1360, Intellifax 1860c, Intellifax 1960c, Intellifax 2480c, Intellifax 2580c, MFC230c, MFC240c, MFC3360c, MFC440c, MFC465cn, MFC5460cn, MFC5860cn, MFC660cn, MFC665cw, MFC680cn, MFC685cw, MFC845cw, MFC885cw.  Value pack includes one of each.  Black LC51BK, Cyan LC51C, Magenta LC51M, and Yellow LC51Y</t>
+  </si>
+  <si>
+    <t>DR360 Genuine Brother Drum Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP7030, DCP7040, HL2140, HL2170, HL2170W, MFC7340, MFC7345n, MFC7440cn, MFC7440n, MFC7840W.</t>
+  </si>
+  <si>
+    <t>DR360 Premium Compatible Drum Cartridge Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP7030, DCP7040, HL2140, HL2170, HL2170W, MFC7340, MFC7345n, MFC7440cn, MFC7440n, MFC7840W. Get OEM quality without the OEM price. Manufactured for reliable performance and results. Installs quickly and easily.</t>
+  </si>
+  <si>
+    <t>TN330 Genuine Brother Toner Cartridge, 1500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL2140, HL2170W, MFC7440n, MFC7840W, DCP7040. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>TN360 Genuine Brother High-Yield Toner Cartridge, 2600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP7030, DCP7040, HL2140, HL2170, HL2170W, MFC7340, MFC7345n, MFC7440cn, MFC7440n, MFC7840W. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN450 Premium Compatible High-Yield Toner Cartridge 2600 Page-Yield, Black </t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother  DCP7060d, DCP7065dn, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw.</t>
+  </si>
+  <si>
+    <t>DR420 Premium Compatible Drum Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible drum unit for DCP7055, DCP7055w, DCP7060d, DCP7065dn, HL-2130, HL-2135w, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw.</t>
+  </si>
+  <si>
+    <t>DR420 Genuine Brother Drum Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum unit for DCP7055, DCP7055w, DCP7060d, DCP7065dn, HL-2130, HL-2135w, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw.</t>
+  </si>
+  <si>
+    <t>TN420 Genuine Brother Toner Cartridge, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner for DCP7060d, DCP7065dn, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw.</t>
+  </si>
+  <si>
+    <t>TN570 Premium Compatible High-Yield Toner Cartridge 6700 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DPC8040, DCP8045d, MFC8220, MFC8440, MFC8840d, MFC8840dn. Features a mastery of grayscale for truly impressive prints. Features an advanced formula that reduces smudging and streaking. Simple installation means less time installing and more time working.</t>
+  </si>
+  <si>
+    <t>DR500 Premium Compatible Drum Cartridge Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP8020, DCP8025d, MFC8420, MFC8820, MFC8820dn. Look to this compatible laser drum cartridge to affordably supply OEM quality and performance. It's engineered to get optimal results from your machine. Durably constructed for quick, easy installation.</t>
+  </si>
+  <si>
+    <t>TN560 Genuine Brother High-Yield Toner Cartridge, 6500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8020, DCP8025d, HL1650, HL1670n, HL1850, HL1850, HL1870, HL5040, HL5050, HL5070n, MFC8420, MFC8820d, MFC8820dn, MFC8420. Brothers Toner Save feature extends the life of the toner assembly by using less toner during the print process, so you get higher page-yield. You'll be amazed at the blacker blacks and richer colors. Every cartridge is designed to provide optimal printing performance.</t>
+  </si>
+  <si>
+    <t>DR500 Genuine Brother Drum Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP8020, DCP8025d, MFC8420, MFC8820, MFC8820dn.</t>
+  </si>
+  <si>
+    <t>TN450 Genuine Brother High-Yield Toner Cartridge, 2600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield toner for  DCP7060d, DCP7065dn, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw.</t>
+  </si>
+  <si>
+    <t>DR510 Premium Compatible Drum Cartridge Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP8040, DCP8045d, HL5150, HL5150d, HL5150dlt, HL5170dn, HL5170dlt, MFC8220, MFC8440, MFC8440d, MFC8840dn. Reliable performance at an economical price. Provides clear, crisp printing with accurate reproduction. Built and tested for consistent reliability.</t>
+  </si>
+  <si>
+    <t>TN580 Premium Compatible High-Yield Toner Cartridge 7000 Page-Yield, Box of 3, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP8060, DCP8065d, MFC8460n, MFC8860dn, MFC8870dw. Contains 3 compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>TN530 Genuine Brother Toner Cartridge, 3300 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8020, DCP8025d, HL1650, HL1650n, HL1670n, HL5040, HL5050, HL5050lt, HL5070n, MFC8420, MFC8820, MFC8820d, MFC8820dn. Reduce downtime and increase productivity with a cartridge that is easy to install or replace. Every cartridge is designed to provide optimal printing performance. Each cartridge offers a fine quality that everyone should experience.</t>
+  </si>
+  <si>
+    <t>TN580 Premium Compatible High-Yield Toner Cartridge 7000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP8060, DCP8065d, MFC8460n, MFC8860dn, MFC8870dw. Count on this toner to bring out the finer details in your work. Dries quickly for easy handling. Installation is quick, reducing downtime.</t>
+  </si>
+  <si>
+    <t>DR520 Genuine Brother Drum Cartridge, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum DCP8060, DCP8065d, MFC8460n, MFC8860dn, MFC8870dw.</t>
+  </si>
+  <si>
+    <t>TN550 Genuine Brother Toner Cartridge, 3500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8060, DCP8065d, MFC8460n, MFC8860dn, MFC8870dw. Increase productivity and reduce costs when each cartridge delivers value and dependability. Each cartridge produces clear, sharp and professional printing results. Easy-to-install cartridges for a seamless operation.</t>
+  </si>
+  <si>
+    <t>TN580 Genuine Brother High-Yield Toner Cartridge, 7000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>DR520 Premium Compatible Drum Cartridge Cartridge, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP8060, DCP8065En, MFC8460n, MFC8860dn, MFC8870dw. Puts high-quality visuals and text at your fingertips. Drum is dependable and long-lasting. Simple installation means you spend less time installing and more time printing.</t>
+  </si>
+  <si>
+    <t>TN570 Genuine Brother High-Yield Toner Cartridge, 6700 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8040, DCP8045d, MFC8220, MFC8440, MFC8840d, MFC8840dn. Exceptional black and white printing with Brother toners. A cartridge that yields an optimal number of pages for efficient and economical printing jobs. All components are manufactured with original materials.</t>
+  </si>
+  <si>
+    <t>TN540 Genuine Brother Toner Cartridge, 3500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8040, DCP8045d, MFC8220, MFC8440, MFC8840d, MFC8840dn, HL5100, HL5140, HL5150, 5170. Exceptional black and white printing with Brother toners. A cartridge that yields an optimal number of pages for efficient and economical printing jobs. All components are manufactured with original materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN450 Premium Compatible High-Yield Toner Dual Pack, 2600 Page-Yield, Box Of 2, Black </t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother  DCP7060d, DCP7065dn, HL-2220, HL2230, HL2240, HL2240d, HL2270dw, HL-2275dw, HL2280dw, Intellifax 2840, Intellifax 2940, MFC7240, MFC7360, MFC7365dn, MFC7460dn, MFC7860dw. Contains two compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>DR510 Genuine Brother Drum Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP8040, DCP8045d, HL5150, HL5150d, HL5150dlt, HL5170dn, HL5170dlt, MFC8220, MFC8440, MFC8440d, MFC8840dn.</t>
+  </si>
+  <si>
+    <t>TN560 Premium Compatible High-Yield Toner Cartridge 6500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP8020, DCP8025d, HL1650, HL1670n, HL1850, HL1850, HL1870, HL5040, HL5050, HL5070n, MFC8420, MFC8820d, MFC8820dn, MFC8420. Innovera manufactures a toner that's dependable and long-lasting. Enjoy quality printing at less cost with this cartridge. You'll be impressed with the performance and professional results.</t>
+  </si>
+  <si>
+    <t>TN360 Premium Compatible High-Yield Toner Cartridge 2600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP7030, DCP7040, HL2140, HL2170, HL2170W, MFC7340, MFC7345n, MFC7440cn, MFC7440n, MFC7840W. Enjoy significant cost savings with this toner cartridge. Adds extra impact with crisp, clear text and image reproduction. Superior compatibility makes installation a snap.</t>
+  </si>
+  <si>
+    <t>TN360 Premium Compatible High-Yield Toner Cartridge 2600 Page-Yield, Box of 3, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP7030, DCP7040, HL2140, HL2170, HL2170W, MFC7340, MFC7345n, MFC7440cn, MFC7440n, MFC7840W. Contains 3 compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>DR720 Premium Compatible Drum Cartridge, 30000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dw, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MFC8710dw, MFC8910dw, MFC8950dw, MFC8950dwt.</t>
+  </si>
+  <si>
+    <t>TN650 Genuine Brother High-Yield Toner Cartridge, 8000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP-8080dn, DCP-8085dn, HL-5340d, HL-5350dn, HL-5370dw, HL-5370dwt, MFC-8480dn,MFC-8680dn,  MFC-8690dw, MFC-8890dw. Enjoy the quality genuine OEM toner provides. Reliable and dependable so you can count on it when you need it most. Easy to install, getting you right back to work.</t>
+  </si>
+  <si>
+    <t>TN750 Genuine Brother High-Yield Toner Cartridge, 8000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black High-Yield toner for DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dw, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MF8710dw, MFC8810dw, MFC8910dw, MFC8950dw, MFC8950dwt.  Genuine OEM toner provides consistent, reliable operation for your copier. You can trust the output quality of every document. Cartridge is engineered for optimum printing.</t>
+  </si>
+  <si>
+    <t>DR720 Genuine Brother Drum, 30000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dw, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MFC8710dw, MFC8910dw, MFC8950dw, MFC8950dwt.  Will perform when your requirements are most demanding. Increase productivity and reduce costs.</t>
+  </si>
+  <si>
+    <t>TN720 Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MFC8710dw, MFC8910dw, MFC8950dw, MFC8950dwt. Genuine OEM toner provides consistent, reliable operation for your copier. You can trust the output quality of every document. Cartridge is engineered for optimum printing.</t>
+  </si>
+  <si>
+    <t>TN750 Premium Compatible High-Yield Toner Cartridge 8000 Page-Yield, Box of 3, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black high-yield toner for Brother DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dw, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MF8710dw, MFC8810dw, MFC8910dw, MFC8950dw, MFC8950dwt. Contains 3 compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>TN650 Premium Compatible High-Yield Toner Cartridge 8000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP-8080dn, DCP-8085dn, HL-5340d, HL-5350dn, HL-5370dw, HL-5370dwt, MFC-8480dn,MFC-8680dn,  MFC-8690dw, MFC-8890dw. Cost-effective alternative to OEM toner. Consistent, reliable performance with outstanding print clarity. Simple to install and replace.</t>
+  </si>
+  <si>
+    <t>DR210CL Genuine Brother Genuine Brother Drum Kit, Contains Four Drums, 15000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum kit for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn.</t>
+  </si>
+  <si>
+    <t>TN750 Premium Compatible High-Yield Toner Cartridge 8000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black high-yield toner for Brother DCP8110dn, DCP8150dn, DCP8155dn, HL5450dn, HL5470dw, HL5470dwt, HL6180dw, HL6180dwt, MFC8510dn, MF8710dw, MFC8810dw, MFC8910dw, MFC8950dw, MFC8950dwt. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction.</t>
+  </si>
+  <si>
+    <t>TN110C Genuine Brother Toner Cartridge, 1500 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Genuine Brother cyan toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
   </si>
   <si>
+    <t>TN110Y Genuine Brother Toner Cartridge, 1500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>DR820 Genuine Brother Drum Unit, 30000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum unit for DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6750DW, MFC-L6800DW.</t>
+  </si>
+  <si>
+    <t>TN210Y Genuine Brother Toner Cartridge, 1400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother yellow toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t>TN210M Premium Compatible Toner Cartridge, 1400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible magenta toner for Brother DCP9010cn, DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t>LC103Y XL Series Premium Compatible Ink Cartridge, 600 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Compatible high-yield (XL Series) yellow ink for use in Brother DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.OEM </t>
+  </si>
+  <si>
+    <t>LC103C XL Series Genuine Brother Ink Cartridge, 600 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield (XL Series) cyan ink for use in DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.</t>
+  </si>
+  <si>
+    <t>LC103BK XL Series Genuine Brother Ink Cartridge, 600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield (XL Series) black ink for use in DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.</t>
+  </si>
+  <si>
+    <t>LC1032PKS XL Genuine Brother Ink Cartridge, 600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother high-yield (XL Series) black ink for use in DCP-J152W, MFC-J245, MFC-J285DW, MFC-J450DW, MFC-J470DW, MFC-J475DW, MFC-J650DW, MFC-J6520DW, MFC-J6720DW, MFC-J6920DW, MFC-J870DW, MFC-J875DW. Contains 2 black ink cartridges (LC103BK) 600 page-yield each. </t>
+  </si>
+  <si>
+    <t>LC103M XL Series Genuine Brother Ink Cartridge, 600 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield (XL Series) magenta ink for use in DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.</t>
+  </si>
+  <si>
+    <t>LC103C XL Series Premium Compatible Ink Cartridge, 600 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium Compatible high-yield (XL Series) cyan ink for use in Brother DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.</t>
+  </si>
+  <si>
+    <t>LC103Y XL Series Genuine Brother Ink Cartridge, 600 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield (XL Series) yellow ink for use in DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw.</t>
+  </si>
+  <si>
+    <t>LC1033PKS XL Series Genuine Brother Ink Cartridge, Pack of 3, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother high-yield (XL Series) tri-color ink for use in DCP-J152W, MFC-J245, MFC-J285DW, MFC-J450DW, MFC-J470DW, MFC-J475DW, MFC-J650DW, MFC-J6520DW, MFC-J6720DW, MFC-J6920DW, MFC-J870DW, MFC-J875DW.  Contains one of each color.  Cyan LC103C, magenta LC103M, yellow LC103Y. </t>
+  </si>
+  <si>
+    <t>DR630 Genuine Brother Drum Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother black drum for DCP-L2520DW, DCP-L2540DW, HL-L2300D, HL-L2305W, HL-L2320D, HL-L2340DW, HL-L2360DW, HL-L2380DW, MFC-L2680W, MFC-L2700DW, MFC-L2705DW, MFC-L2707DW, MFC-L2720DW, MFC-L2740DW.</t>
+  </si>
+  <si>
+    <t>DR630 Premium Compatible Drum Cartridge, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible black drum for Brother DCP-L2520DW, DCP-L2540DW, HL-L2300D, HL-L2305W, HL-L2320D, HL-L2340DW, HL-L2360DW, HL-L2380DW, MFC-L2680W, MFC-L2700DW, MFC-L2705DW, MFC-L2707DW, MFC-L2720DW, MFC-L2740DW.</t>
+  </si>
+  <si>
+    <t>LC103M XL Series Premium Compatible Ink Cartridge, 600 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Compatible high-yield (XL Series) magenta ink for use in Brother DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw. </t>
+  </si>
+  <si>
+    <t>TN660 Genuine Brother High-Yield Toner Cartridge, 2600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP-L2520DW, DCP-L2540DW, HL-L2300D, HL-L2305W, HL-L2320D, HL-L2340DW, HL-L2360DW, HL-L2380DW, MFC-L2680W, MFC-L2700DW, MFC-L2705DW, MFC-L2707DW, MFC-L2720DW, MFC-L2740DW.</t>
+  </si>
+  <si>
+    <t>WT100CL Genuine Brother Waste Toner Box, 20K Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner box for use With: DCP9040cn, 9045cdn, HL4040cdn, HL4040cdw, HL4040cn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw. Waste toner box for use With: HL-4040CN, HL-4070CDW, MFC-9440CN and MFC-9840CDW.</t>
+  </si>
+  <si>
+    <t>BU100CL Genuine Brother Transfer Belt Unit, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Transfer Belt unit for DCP9040cn, DCP9045cdn, HL4040cdn, HL4040cdw, HL4040cn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw.</t>
+  </si>
+  <si>
+    <t>LC103BK XL Series Premium Compatible Ink Cartridge, 600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield (XL Series) black ink for use in Brother DCPJ152w, MFCJ245, MFCJ285dw, MFCJ4310dw, MFCJ4410dw, MFCJ450dw, MFCJ4510dw, MFCJ4610dw, MFCJ470dw, MFCJ4710dw, MFCJ475dw, MFCJ460dn, MFCJ6520dw, MFCJ6720dn, MFCJ6920dn, MFCJ870dw, MFCJ875dw. </t>
+  </si>
+  <si>
+    <t>TN660 Premium Compatible High-Yield Toner Dual Pack, 2600 Page-Yield, Box Of 2, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP-L2520DW, DCP-L2540DW, HL-L2300D, HL-L2305W, HL-L2320D, HL-L2340DW, HL-L2360DW, HL-L2380DW, MFC-L2680W, MFC-L2700DW, MFC-L2705DW, MFC-L2707DW, MFC-L2720DW, MFC-L2740DW. Contains two compatible high-yield black toner cartridges.</t>
+  </si>
+  <si>
+    <t>TN630 Genuine Brother Toner Cartridge, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>DR820 Premium Compatible Drum Unit, 30000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible drum unit for Brother DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6750DW, MFC-L6800DW.</t>
+  </si>
+  <si>
+    <t>DR110CL Genuine Brother Drum Cartridge, 17000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for  DCP9040cn, DCP9045cdn, HL4040cdn, HL4040cn, HL4070cdw, MFC9440cn, MFC9440cnrf, MFC9450cdn, MFC9840cdw, MFC9840cdwrf.</t>
+  </si>
+  <si>
+    <t>TN850 Genuine Brother High-Yield Toner Cartridge, 8000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother high-yield toner for DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6750DW, MFC-L6800DW. </t>
+  </si>
+  <si>
+    <t>TN660 Premium Compatible High-Yield Toner Cartridge, 2600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother DCP-L2520DW, DCP-L2540DW, HL-L2300D, HL-L2305W, HL-L2320D, HL-L2340DW, HL-L2360DW, HL-L2380DW, MFC-L2680W, MFC-L2700DW, MFC-L2705DW, MFC-L2707DW, MFC-L2720DW, MFC-L2740DW.</t>
+  </si>
+  <si>
+    <t>TN115Y Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>TN820 Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner for DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW.</t>
+  </si>
+  <si>
+    <t>TN115M Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Genuine Brother magenta toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
   </si>
   <si>
+    <t>TN115C Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>TN115BK Genuine Brother High-Yield Toner Cartridge, 5000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother black toner for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. A cartridge that will perform when your requirements are most demanding. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
   </si>
   <si>
+    <t>TN110M Genuine Brother Toner Cartridge, 1500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>TN115 Genuine Brother High-Yield Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
     <t>Genuine Brother toner value pack for HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Value Pack includes one of each color.  Black TN115BK, cyan TN115C, magenta TN115M, and yellow TN115Y.</t>
   </si>
   <si>
+    <t>TN110BK Genuine Brother Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>TN210C Genuine Brother Toner Cartridge, 1400 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genuine Brother cyan toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
   </si>
   <si>
+    <t>TN210M Genuine Brother Toner Cartridge, 1400 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genuine Brother magenta toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
   </si>
   <si>
+    <t>TN850 Premium Compatible High-Yield Toner Cartridge, 8000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium compatible high-yield toner for DCP-L5500DN, DCP-L5600DN, DCP-L5650DN, HL-L5000D, HL-L5100DN, HL-L5200, HL-L6200, HL-L6250DW, HL-L6300DW, HL-L6400DW, MFC-L5700DW, MDC-L5800DW, MFC-L5850DW, MFC-L5900DW, MFC-L6750DW, MFC-L6800DW. </t>
   </si>
   <si>
+    <t>TN110 Genuine Brother Toner Value Pack. Contains Black, Cyan, Magenta and Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother toner value pack for use in HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn.</t>
   </si>
   <si>
+    <t>TN210BK Genuine Brother Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn.</t>
+  </si>
+  <si>
+    <t>TN210 Genuine Brother Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for HL3040cn, HL3070cw, MFC9010cn, MFC9120cn, MFC9320cn, MFC9320cw.  Value Pack includes one of each color.  Black TN210K, cyan TN210C, magenta TN210M, and yellow TN210Y.</t>
+  </si>
+  <si>
+    <t>TN115Y Premium Compatible High-Yield Toner Cartridge 4000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow toner for Brother HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Get high-caliber OEM performance at a significant cost savings. Enhances any document with rich, vibrant details. Built for easy installation and replacement.</t>
+  </si>
+  <si>
+    <t>TN115M Premium Compatible High-Yield Toner Cartridge 4000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta toner for Brother HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Get high-caliber OEM performance at a significant cost savings. Enhances any document with rich, vibrant details. Built for easy installation and replacement.</t>
+  </si>
+  <si>
+    <t>TN210Y Premium Compatible Toner Cartridge, 1400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible yellow toner for Brother DCP9010cn,  HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t>LC61M Genuine Brother Ink Cartridge, 500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for DCP-165C, DCP-375CW, DCP-385C, DCP-395CN, DCP-585CW, DCP-J125, DCP-J140W, MFC-250C, MFC-255CW, MFC-290C, MFC-295CN, MFC-490CW, MFC-495CW, MFC-5490CN, MFC-5890CN, MFC-5895CW, MFC-6490CW, MFC-6890CDW, MFC-790CW, MFC-795CW, MFC-990CW, MFC-J220, MFC-J265w, MFC-J270w, MFC-J410w, MFC-J415w, MFC-J615W, MFC-J630W.</t>
+  </si>
+  <si>
+    <t>TN210BK Premium Compatible Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible black toner for Brother DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t>TN115BK Premium Compatible High-Yield Toner Cartridge 5000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Get high-caliber OEM performance at a significant cost savings. Enhances any document with rich, vibrant details. Built for easy installation and replacement.</t>
+  </si>
+  <si>
+    <t>TN115C Premium Compatible High-Yield Toner Cartridge 4000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan toner for Brother HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Get high-caliber OEM performance at a significant cost savings. Enhances any document with rich, vibrant details. Built for easy installation and replacement.</t>
+  </si>
+  <si>
+    <t>TN210 Premium Compatible Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible toner value pack for Brother HL3040cn, HL3070cw, MFC9010cn, MFC9120cn, MFC9320cn, MFC9320cw.  Value Pack includes one of each color.  Black TN210K, cyan TN210C, magenta TN210M, and yellow TN210Y.</t>
+  </si>
+  <si>
+    <t>TN210C Premium Compatible Toner Cartridge, 1400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible cyan toner for Brother DCP9010cn, HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn. </t>
+  </si>
+  <si>
+    <t>DR620 Genuine Brother Drum Cartridge, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for DCP-8080dn, DCP-8085dn, HL-5340d, HL-5350dn, HL-5370dw, HL-5370dwt, MFC-8480dn,MFC-8680dn,  MFC-8690dw, MFC-8890dw.</t>
+  </si>
+  <si>
+    <t>TN620 Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>DR620 Premium Compatible Drum Cartridge Cartridge, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother DCP-8080dn, DCP-8085dn, HL-5340d, HL-5350dn, HL-5370dw, HL-5370dwt, MFC-8480dn,MFC-8680dn,  MFC-8690dw, MFC-8890dw. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>DR300 Genuine Brother Drum Cartridge,, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother drum unit for HL820, HL1020, HL1040, HL1040dX, HL1050, HL1050dX, HL1060, MFC2000. </t>
+  </si>
+  <si>
+    <t>DR300 Premium Compatible Drum Cartridge Unit, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum unit for Brother HL820, HL1020, HL1040, HL1040dX, HL1050, HL1050dX, HL1060, MFC2000.  Puts high-quality visuals and text at your fingertips. Drum is dependable and long-lasting. Simple installation means you spend less time installing and more time printing.</t>
+  </si>
+  <si>
+    <t>TN300HL Genuine Brother Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL1040, HL1050, HL1060, MFCP2000. Reduce downtime and increase productivity with a cartridge that is easy to install or replace. Every cartridge is designed to provide optimal printing performance. Delicately balanced to provide even flow and toner distribution on the paper.</t>
+  </si>
+  <si>
+    <t>TN115 Premium Compatible High-Yield Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible toner value pack for Brother HL4040cn, HL4040cdn, HL4070cdw, MFC9440cn, MFC9450cdn, MFC9840cdw, DCP9040cn, DCP9045cdn. Value Pack includes one of each color. Black TN115BK, cyan TN115C, magenta TN115M, and yellow TN115Y.</t>
+  </si>
+  <si>
+    <t>TN9000  Premium Compatible Toner Cartridge, 9000 Pgae-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner / drum for Brother HL960, HL1260, HL1660, HL2060. Increase productivity and reduce costs when each cartridge delivers value and dependability. A cartridge that meets the highest-quality of standards, which means you'll always be satisfied. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>TN04BK Premium Compatible Toner Cartridge, 10000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN04 Premium Compatible Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible toner value pack for Brother HL2700cn, MFC9420, MFC9420cn.  Value Pack includes one of each color. Black TN04K, cyan TN04C, magenta TN04M, and yellow TN04Y.</t>
+  </si>
+  <si>
+    <t>TN04C Premium Compatible Toner Cartridge, 6600 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan toner for Brother HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN04Y Premium Compatible Toner Cartridge, 6600 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow toner for Brother HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>WT200CL Genuine Brother Waste Toner Pack, 50K Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner pack for Brother HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn.</t>
+  </si>
+  <si>
+    <t>TN04Y Genuine Brother Toner Cartridge, 6600 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance: Brother toner. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN04M Premium Compatible Toner Cartridge, 6600 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta toner for Brother HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>BU200CL Genuine Brother Transfer Belt Unit, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother transfer Belt for HL3040cn, HL3045cn, HL3070cw, HL3075, HL3075cw, MFC9010cn, MFC9120cn, MFC9125CN, MFC9320cn, MFC9325cn.</t>
+  </si>
+  <si>
+    <t>TN225C Premium Compatible High-Yield Toner Cartridge 2200 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield cyan toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221M Genuine Brother Toner Cartridge, 1400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>WT220CL Genuine Brother Waste Toner Box</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner box for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221M Premium Compatible Toner Cartridge, 1400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta toner for use in Brother HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>BU220CL Genuine Brother Belt Unit, 50000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother belt unit for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN225Y Genuine Brother High-Yield Toner Cartridge, 2200 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow high-yield toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>WT4CL Genuine Brother Waste Toner Unit, 12000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner unit for HL2700cn, MFC9420cn. Increase productivity and reduce costs when each cartridge delivers value and dependability. A cartridge that meets the highest-quality of standards, which means you'll always be satisfied. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>TN225M Genuine Brother High-Yield Toner Cartridge, 2200 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta high-yield toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN225C Genuine Brother High-Yield Toner Cartridge, 2200 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan high-yield toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221Y Genuine Brother Toner Cartridge, 1400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221BK Genuine Brother Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221C Genuine Brother Toner Cartridge, 1400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN225Y Premium Compatible High-Yield Toner Cartridge 2200 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield yellow toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN225M Premium Compatible High-Yield Toner Cartridge 2200 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield magenta toner for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221/225 Premium Compatible Toner Value Pack, Black, Cyan, Magenta and Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible toner value pack for use in Brother HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw. Contains one of each color. Black TN221BKC, cyan TN225CC, magenta TN225MC, and yellow TN225YC.</t>
+  </si>
+  <si>
+    <t>TN9500 Premium Compatible Toner Cartridge, 10000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother HL2460, HL2460n. Increase productivity and reduce costs when each cartridge delivers value and dependability. A cartridge that meets the highest-quality of standards, which means you'll always be satisfied. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>TN221Y Premium Compatible Toner Cartridge, 1400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow toner for use in Brother HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>PH11CL Genuine Brother Drum Unit, 30,000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother photoconductor drum unit for HL4000cn.   Trust this OEM drum kit for superior results. Keeps your machine printing accurate, crisp pages. Replace drums and print heads with one easy cartridge installation.</t>
+  </si>
+  <si>
+    <t>TN221BK Premium Compatible Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for use in Brother HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN221C Premium Compatible Toner Cartridge, 1400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan toner for use in Brother HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw.</t>
+  </si>
+  <si>
+    <t>TN04C Genuine Brother Toner Cartridge, 6600 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN04M Genuine Brother Toner Cartridge, 6600 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN04 Genuine Brother Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for HL2700cn, MFC9420, MFC9420cn.  Value Pack includes one of each color.  Black TN04K, cyan TN04C, magenta TN04M, and yellow TN04Y.</t>
+  </si>
+  <si>
+    <t>TN04BK Genuine Brother Toner Cartridge, 10000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL2700cn, MFC9420, MFC9420cn. For demanding applications, select a cartridge that delivers the best performance. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN221/225 Genuine Brother Toner Value Pack, Black, Cyan, Magenta and Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield toner value pack for HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw. Contains one of each color. Black TN221BK, cyan TN225C, magenta TN225M, and yellow TN225Y.</t>
+  </si>
+  <si>
+    <t>TN12C Premium Compatible Toner Cartridge, 6000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan toner for Brother HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN315 Premium Compatible Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield toner value pack for Brother HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.  Value Pack includes one of each color.  Black TN315K, cyan TN315C, magenta TN315M, and yellow TN315Y.</t>
+  </si>
+  <si>
+    <t>TN12M Genuine Brother Toner Cartridge, 6000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy when using a Brother toner cartridge. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>DR221CL Genuine Brother Drum Set, 15000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother four piece drum set for use in HL3140cw, HL3170cdw, HL3180cdw, MFC9130cw, MFC9330cdw, MFC9340cdw. Drum Includes (1) Black Drum Unit and (3) Color Drum Units - Machine uses 3 - one per color</t>
+  </si>
+  <si>
+    <t>TN12Y Premium Compatible Toner Cartridge, 6000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow toner for Brother HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN315Y Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield, Yellow </t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield yellow toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>TN315M Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield magenta toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>TN315C Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield,Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield cyan toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN315M Premium Compatible High-Yield Toner Cartridge 3500 Page-Yield, Magenta </t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield magenta toner for Brother HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. Quality printing starts with a quality toner. Delivers maximum machine efficiency and consistent product yield. Cartridge installs easily to minimize downtime.</t>
+  </si>
+  <si>
+    <t>DR310CL Genuine Brother Drum Cartridge, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Image drum for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.</t>
+  </si>
+  <si>
+    <t>TN315Y Premium Compatible High-Yield Toner Cartridge 3500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield yellow toner for Brother HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. Quality printing starts with a quality toner. Delivers maximum machine efficiency and consistent product yield. Cartridge installs easily to minimize downtime.</t>
+  </si>
+  <si>
+    <t>PH12CL Genuine Brother Drum Kit, Black/Tri-Color, 30,000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum unit for HL4200cn. Trust this OEM drum kit for superior results. Keeps your machine printing accurate, crisp pages. Replace drums and print heads with one easy cartridge installation.</t>
+  </si>
+  <si>
+    <t>TN315C Premium Compatible High-Yield Toner Cartridge 3500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield cyan toner for Brother HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. Quality printing starts with a quality toner. Delivers maximum machine efficiency and consistent product yield. Cartridge installs easily to minimize downtime.</t>
+  </si>
+  <si>
+    <t>TN12Y Genuine Brother Toner Cartridge, 6000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy when using a Brother toner cartridge. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN315BK Premium Compatible High-Yield Toner Cartridge 6000 Page-Yield, Black </t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield black toner for Brother HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. Quality printing starts with a quality toner. Delivers maximum machine efficiency and consistent product yield. Cartridge installs easily to minimize downtime.</t>
+  </si>
+  <si>
+    <t>TN12C Genuine Brother Toner Cartridge, 6000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy when using a Brother toner cartridge. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN12BK Premium Compatible Toner Cartridge, 9000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for BrotherHL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN12M Premium Compatible Toner Cartridge, 6000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta toner for Brother HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN12BK Genuine Brother Toner Cartridge, 9000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL4200cn. Each cartridge produces solid blacks and vibrant colors for eye-catching graphics. A constant, high-quality performance is a benefit all can enjoy when using a Brother toner cartridge. Reduce downtime and increase productivity with a cartridge that is easy to install or replace.</t>
+  </si>
+  <si>
+    <t>TN12 Premium Compatible Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible toner value pack for HL-4200cn. Contains one of each color. Black TN12BKC, cyan TN12CC, magenta TN12MC, yellow TN12YC.</t>
+  </si>
+  <si>
+    <t>DR600 Genuine Brother Drum Cartridge, 30000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for HL6050d, HL6050dn.</t>
+  </si>
+  <si>
+    <t>TN670 Premium Compatible Toner Cartridge, 7500 Page Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother HL6050d, HL6050dn. Dependable and long-lasting toner. Enjoy quality printing at less cost. Engineered for performance and economy.</t>
+  </si>
+  <si>
+    <t>TN780 Premium Compatible Super High-Yield Toner Cartridge 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible super high-yield toner for Brother HL6180dw, HL6180wt, MFC8950dw, MFC8950dwt.</t>
+  </si>
+  <si>
+    <t>TN315 Genuine Brother Toner Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield toner value pack for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.  Value Pack includes one of each color.  Black TN315K, Cyan TN315C, Magenta TN315M, and Yellow TN315Y.</t>
+  </si>
+  <si>
+    <t>TN780 Genuine Brother Super High-Yield Toner Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield toner for HL6180dw, HL6180wt, MFC8950dw, MFC8950dwt.</t>
+  </si>
+  <si>
+    <t>TN670 Genuine Brother Toner Cartridge, 7500 Page Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL6050, HL6050dn. For fewer disruptions, select a longer-lasting, high-yield toner. You'll be amazed at the blacker blacks and richer colors. Each cartridge will perform when your requirements are most demanding.</t>
+  </si>
+  <si>
+    <t>TN100HL Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL630, HL631, HL641, HL645, HL650, HL660, WL 660.  Exceptional black and white printing with Brother toners. Every cartridge is created to maximize your printing capability. Easy-to-install cartridges for a seamless operation.</t>
+  </si>
+  <si>
+    <t>TN12 Genuine Brother Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for HL-4200cn. Contains one of each color. Black TN12BK, cyan TN12C, magenta TN12M, yellow TN12Y.</t>
+  </si>
+  <si>
+    <t>TN200HL Genuine Brother Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for Brother HL720, HL730+, HL730dx, HL760, HL760+, HL760dx, HL760dx+. A cartridge that yields an optimal number of pages for efficient and economical printing jobs. Rely on Brother toner for clean, sharp edges. Every cartridge is created to maximize your printing capability.</t>
+  </si>
+  <si>
+    <t>DR200 Premium Compatible Drum Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum unit for Brother Intellifax 2600, Intellifax 2750, Intellifax 3550, Intellifax 3650, Intellifax 3750, MFC2750, MFC4300, MFC4350, MFC4450, MFC4550+, MFC4600, MFC4650, MFC6550Mc, MFC6650Mc, MFC7750Mc, MFC7650Mc, MFC7750. This quality drum ensures consistent and optimum output every time you print. Manufactured and tested for accurate charging and image transfer. Installs easily, reducing downtime.</t>
+  </si>
+  <si>
+    <t>DR700 Premium Compatible Drum Cartridge Cartridge, 40000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum unit for Brother HL7050, HL7050n.  OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>DR700 Genuine Brother Drum Cartridge, 40000 Page-Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother drum unit for HL7050, 7050n. </t>
+  </si>
+  <si>
+    <t>TN315BK Genuine Brother High-Yield Toner Cartridge, 6000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield black toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>TN1700 Premium Compatible High-Yield Toner Cartridge 17000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium remanufactured toner for Brother HL5050n, HL8050n. Increase productivity and reduce costs when each cartridge delivers value and dependability. A cartridge that meets the highest-quality of standards, which means you'll always be satisfied. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>TN700 Premium Compatible High-Yield Toner Cartridge 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black toner for Brother HL7050, HL7050n. This cartridge is engineered for superior performance and compatibility. Get the reliability you deserve at a price you can afford. Easy-install cartridges save time and boost productivity.</t>
+  </si>
+  <si>
+    <t>TN700 Genuine Brother High-Yield Toner Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL7050, HL7050n. Help streamline your operation with minimal downtime by using a high-yield toner cartridge. You'll be amazed at the blacker blacks and richer colors. A constant, high-quality performance is a benefit all can enjoy when using a Brother toner cartridge.</t>
+  </si>
+  <si>
+    <t>DR200 Genuine Brother Drum Cartridge, 20000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum for Intellifax 2600, Intellifax 2750, Intellifax 3550, Intellifax 3650, Intellifax 3750, MFC2750, MFC4300, MFC4350, MFC4450, MFC4550+, MFC4600, MFC4650, MFC6550Mc, MFC6650Mc, MFC7750Mc, MFC7650Mc, MFC7750.</t>
+  </si>
+  <si>
+    <t>DR600 Premium Compatible Drum Cartridge Cartridge, 30000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible drum for Brother HL6050d, HL6050dn. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>TN1700 Genuine Brother High-Yield Toner Cartridge, 17000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black high-yield toner for HL5050n, HL8050n. A high-yield cartridge can easily reduce costs while being more environmentally responsible. You'll be amazed at the blacker blacks and richer colors. Rely on Brother toner for clean, sharp edges.</t>
+  </si>
+  <si>
+    <t>TN336Y Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield yellow toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw</t>
+  </si>
+  <si>
+    <t>DR331CL Genuine Brother Drum Unit Set, 25000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother black/color drum unit set for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, HL-L9200cdw, HL-L9200cdwt, MFC-L8600cdw, MFC-L8850cdw, MFC-L9550cdw.</t>
+  </si>
+  <si>
+    <t>TN336C Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield cyan toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
+  </si>
+  <si>
+    <t>TN433Y Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield yellow toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN433M Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield magenta toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN433C Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield cyan toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN433BK Genuine Brother High-Yield Toner Cartridge, 4500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield black toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN339Y Genuine Brother Super High-Yield Toner Cartridge, 6000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield yellow toner for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN339M Genuine Brother Super High-Yield Toner Cartridge, 6000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield magenta toner for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN339C Genuine Brother Super High-Yield Toner Cartridge, 6000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield cyan toner for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN336M Genuine Brother High-Yield Toner Cartridge, 3500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield magenta toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw</t>
+  </si>
+  <si>
+    <t>TN339BK Genuine Brother Super High-Yield Toner Cartridge, 6000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield black toner for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN436Y Genuine Brother Super High-Yield Toner Cartridge, 6500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield yellow toner for HL-L8360CDW, HL-L8360CDWT, HL-L9310CDW, MFC-L8900CDW, MFC-L9570CDW.</t>
+  </si>
+  <si>
+    <t>TN436C Genuine Brother Super High-Yield Toner Cartridge, 6500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield cyan toner for HL-L8360CDW, HL-L8360CDWT, HL-L9310CDW, MFC-L8900CDW, MFC-L9570CDW.</t>
+  </si>
+  <si>
+    <t>TN436M Genuine Brother Super High-Yield Toner Cartridge, 6500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield magneta toner for HL-L8360CDW, HL-L8360CDWT, HL-L9310CDW, MFC-L8900CDW, MFC-L9570CDW.</t>
+  </si>
+  <si>
+    <t>TN339VP Genuine Brother Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner super high-yield value pack for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW. Contains one of each color. Black TN339BK, cyan TN339C, magenta TN339M, yellow TN339Y.</t>
+  </si>
+  <si>
+    <t>TN339M Premium Compatible Toner Cartridge, 6000 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible extra high-yield magenta toner for Brother HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN436BK Genuine Brother Super High-Yield Toner Cartridge, 6500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield black toner for HL-L8360CDW, HL-L8360CDWT, HL-L9310CDW, MFC-L8900CDW, MFC-L9570CDW.</t>
+  </si>
+  <si>
+    <t>TN339Y Premium Compatible Toner Cartridge, 6000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible extra high-yield yellow toner for Brother HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>BU320CL Genuine Brother Belt Unit, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother belt unit for HL-L8250CDN, HL-L8350CDW, HL-L8350CDWT, HL-L9200CDW, HL-L9200CDWT, MFC-L8600CDW, MFC-L8850CDW, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN890 Genuine Brother Toner Cartridge, 20000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner for HL-L6400DW, HL-L6400DWT, MFC-L6900DW.</t>
+  </si>
+  <si>
+    <t>TN339C Premium Compatible Toner Cartridge, 6000 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible extra high-yield cyan toner for HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN433 Genuine Brother High-Yield Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield toner value pack for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW. Contains one of each color. Black TN433BK, Cyan TN433C, Magenta TN433M, Yellow TN433Y.</t>
+  </si>
+  <si>
+    <t>TN339BK Premium Compatible Toner Cartridge, 6000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible extra high-yield black toner for Brother HL-L9200CDW, HL-L9200CDWT, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN431BK Genuine Brother Toner Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN431M Genuine Brother Toner Cartridge, 1800 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN431Y Genuine Brother Toner Cartridge, 1800 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN339VP Premium Compatible Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible toner super high-yield value pack for Brother HL-L8250CDN, HL-L8350CDW, HL-L8350CDWT, HL-L9200CDW, HL-L9200CDWT, MFC-L8600CDW, MFC-L8850CDW, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>TN431 Genuine Brother Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother toner value pack for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW. Contains one of each color. Black TN431BK, Cyan TN431C, Magenta TN431M, Yellow TN431Y.</t>
+  </si>
+  <si>
+    <t>TN433Y Premium Compatible High-Yield Toner Cartridge, 4000 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible high-yield yellow toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
+  </si>
+  <si>
+    <t>TN433M Premium Compatible High-Yield Toner Cartridge, 4000 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Premium compatible high-yield magenta toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
   </si>
   <si>
+    <t>TN433C Premium Compatible High-Yield Toner Cartridge, 4000 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Premium compatible high-yield cyan toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
   </si>
   <si>
+    <t>TN431C Genuine Brother Toner Cartridge, 1800 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Genuine Brother cyan toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
   </si>
   <si>
+    <t>TN433BK Premium Compatible High-Yield Toner Cartridge, 4500 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Premium compatible high-yield black toner for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW.</t>
   </si>
   <si>
+    <t>TN336BK Genuine Brother High-Yield Toner Cartridge, 4000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother high-yield black toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
   </si>
   <si>
+    <t>TN331M Genuine Brother Toner Cartridge, 1500 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Genuine Brother magenta toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
   </si>
   <si>
+    <t>TN331C Genuine Brother Toner Cartridge, 1500 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Genuine Brother cyan toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
   </si>
   <si>
+    <t>TN336 Genuine Brother High-Yield Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother high-yield toner value pack for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. Contains one of each color. Black TN336BK, cyan TN336C, magenta TN366M, yellow TN336Y.</t>
   </si>
   <si>
+    <t>TN336Y Premium Compatible High-Yield Toner Cartridge, 3500 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium compatible high-yield yellow toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
   </si>
   <si>
+    <t>TN331BK Genuine Brother Toner Cartridge, 2500 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother black toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
   </si>
   <si>
+    <t>TN336BK Premium Compatible High-Yield Toner Cartridge, 4000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium compatible high-yield black toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
   </si>
   <si>
+    <t>TN433 Premium Compatible High-Yield Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
     <t>Premium compatible high-yield toner value pack for HL-L8260CDW, HL-L8360CDW, HL-L8360CDWT, MFC-L8610CDW, MFC-L8900CDW. Contains one of each color. Black TN433BK, Cyan TN433C, Magenta TN433M, Yellow TN433Y.</t>
   </si>
   <si>
+    <t>TN336 Premium Compatible High-Yield Toner Value Pack, Black, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
     <t>Premium compatible high-yield toner value pack for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. Contains one of each color. Black TN336BK, cyan TN336C, magenta TN366M, yellow TN336Y.</t>
   </si>
   <si>
+    <t>TN880 Genuine Brother Super High-Yield Toner Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genuine Brother super high-yield toner for HL-L6200DW, HL-L6250DW, HL-L6200DWT, HL-L6300DW, HL-L6400DWT, HL-L6400DW, HL-L6400DWT, MFC-L5700, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW. </t>
   </si>
   <si>
+    <t>TN331Y Genuine Brother Toner Cartridge, 1500 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother yellow toner for HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw.</t>
   </si>
   <si>
+    <t>TN890 Premium Compatible Toner Cartridge, 20000 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Premium compatible toner for Brother HL-L6400DW, HL-L6400DWT, HL-L6900DW, MFC-L6900DW.</t>
   </si>
   <si>
+    <t>TN880 Premium Compatible Super High-Yield Toner Cartridge, 12000 Page-Yield, Box of 3, Black</t>
+  </si>
+  <si>
     <t>Premium compatible super high-yield toner for Brother HL-L6200DW, HL-L6250DW, HL-L6200DWT, HL-L6300DW, HL-L6400DWT, HL-L6400DW, HL-L6400DWT, MFC-L5700, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW. Contains 3 compatible high-yield black toner cartridges.</t>
   </si>
   <si>
+    <t>TN880 Premium Compatible Super High-Yield Toner Cartridge, 12000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Compatible super high-yield toner for Brother HL-L6200DW, HL-L6250DW, HL-L6200DWT, HL-L6300DW, HL-L6400DWT, HL-L6400DW, HL-L6400DWT, MFC-L5700, MFC-L6700DW, MFC-L6750DW, MFC-L6800DW. </t>
+  </si>
+  <si>
+    <t>TN336M Premium Compatible High-Yield Toner Cartridge, 3500 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield magenta toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
+  </si>
+  <si>
+    <t>PC102RF Genuine Brother Ribbons, Box of 2 Refills</t>
+  </si>
+  <si>
+    <t>Genuine Brother refill ribbons for Intellifax 1150, Intellifax 1250, Intellifax 1350, Intellifax 1570c, MFC1450, MFC1550, MFC1750, MFC1850, MFC1950mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>PC101 Genuine Brother Ribbon Print Cartridge, 750 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Fax Print ribbon for Intellifax 1150, Intellifax 1250, Intellifax 1350, Intellifax 1450, Intellifax 1550mc, MFC1750, MFC1850mc, MFC1950mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>PC201 Premium Compatible Ribbon Premium Compatible Print Cartridge, 450 Page-Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible Print ribbon for Brother Intellifax 1170, Intellifax 1270, Intellifax 1570, MFC1770, MFC1780, MFC1870, MFC1970mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>PC201 Genuine Brother Ribbon Print Cartridge, 450 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Print ribbonfor Intellifax 1170, Intellifax 1270, Intellifax 1570, MFC1770, MFC1780, MFC1870, MFC1970mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>LC21M Genuine Brother Ink Cartridge, 450 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for Intellifax 1800, Intellifax 1800c, MFC3100c, MFC3200c, MFC5100c, MFC5200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink provides long-lasting results. Hermetically sealed packaging ensures longer shelf life.</t>
+  </si>
+  <si>
+    <t>LC21Y Genuine Brother Ink Cartridge, 450 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for Intellifax 1800, Intellifax 1800c, MFC3100c, MFC3200c, MFC5100c, MFC5200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink provides long-lasting results. Hermetically sealed packaging ensures longer shelf life.</t>
+  </si>
+  <si>
+    <t>LC21BK Genuine Brother Ink Cartridge, 950 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for Intellifax 1800, Intellifax 1800c, MFC3100c, MFC3200c, MFC5100c, MFC5200c. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC21C Genuine Brother Ink Cartridge, 450 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for Intellifax 1800, Intellifax 1800c, MFC3100c, MFC3200c, MFC5100c, MFC5200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink provides long-lasting results. Hermetically sealed packaging ensures longer shelf life.</t>
+  </si>
+  <si>
+    <t>LC21 Genuine Brother Ink Value Pack, Contains Black, Cyan, Magenta and Yellow.</t>
+  </si>
+  <si>
+    <t>Genuine Brother inkjet value pack for Intellifax 1800, Intellifax 1800c, MFC3100c, MFC3200c, MFC5100c, MFC5200c.  Value Pack includes one of each color.  Black LC21BK, cyan LC21C, magenta LC21M, and yellow LC21Y.</t>
+  </si>
+  <si>
+    <t>LC31Y Genuine Brother Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31C Genuine Brother Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31HYBK Genuine Brother High-Yield Ink Cartridge, 900 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31M Premium Compatible Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta inkjet for Brother MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31M Genuine Brother Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31BK Premium Compatible Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black inkjet for Brother MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31Y Premium Compatible Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow inkjet for Brother MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>PC501 Premium Compatible Thermal Transfer Ribbon, 150 Page Yield</t>
+  </si>
+  <si>
+    <t>Premium compatible Thermal transfer ribbon for Brother Fax 575. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC301 Premium Compatible Print Cartridge, 250 Page-Yield </t>
+  </si>
+  <si>
+    <t>Premium compatible Print ribbon for Brother Intellifax 750, Intellifax 770, Intellifax 870, Intellifax 885Mc, MFC970mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>PC301 Genuine Brother Print Cartridge, 250 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Print ribbon for Intellifax 750, Intellifax 770, Intellifax 870, Intellifax 885Md, MFC970mc. You can rely on this Innovera thermal transfer ribbon for impressive, professional results. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t>LC25Y Genuine Brother Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ink for MFC4420c, MFC4820c. Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25M Genuine Brother Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ink for MFC4420c, MFC4820c.  Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25C Genuine Brother Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ink for MFC4420c, MFC4820c. Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25BK Genuine Brother Ink Cartridge, 480 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black ink for MFC4420c, MFC4820c.  Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25Y Premium Compatible Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow ink for Brother MFC4420c, MFC4820c. Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25M Premium Compatible Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta ink for Brother MFC4420c, MFC4820c. Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25C Premium Compatible Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan ink for Brother MFC4420c, MFC4820c. Four-cartridge ink system allows you to change only those that are needed. Shelf life is ensured to be longer with hermetically sealed packaging. Receive sharp, crisp output with dye-based ink.</t>
+  </si>
+  <si>
+    <t>LC25BK Premium Compatible Ink Cartridge, 480 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black ink for Brother MFC4420c, MFC4820c.  Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink provides long-lasting results. Hermetically sealed packaging ensures longer shelf life.</t>
+  </si>
+  <si>
+    <t>LC51HYBK Genuine Brother High-Yield Ink Cartridge, 900 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black high-yield inkjet for MFC5460cn, MFC5860cn. Use Innobella inks for long lasting, brilliant printouts of photos and documents. Four-cartridge ink system allows you to change only those that are needed. Robust ink delivery for demanding print applications.</t>
+  </si>
+  <si>
+    <t>TN336C Premium Compatible High-Yield Toner Cartridge, 3500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible high-yield cyan toner for Brother HL-L8250cdn, HL-L8350cdw, HL-L8350cdwt, MFC-L8600cdw, MFC-L8850cdw. </t>
+  </si>
+  <si>
+    <t>LC65HYY Genuine Brother High-Yield Ink Cartridge, 750 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow inkjet for MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65HYC Genuine Brother High-Yield Ink Cartridge, 750 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan inkjet for MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65HYBK Genuine Brother High-Yield Ink Cartridge, 900 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black inkjet for MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC652PKS Genuine Brother High-Yield Ink Cartridge, 900 Page-Yield, Box of 2, Black</t>
+  </si>
+  <si>
+    <t>LC65Y Premium Compatible High-Yield Ink Cartridge, 750 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow ink for Brother MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC653PKS Genuine Brother High-Yield Ink Cartridge, 900 Page-Yield, Box of 3, Tri-Color</t>
+  </si>
+  <si>
+    <t>Genuine Brother Tri color inkjet for MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65C Premium Compatible High-Yield Ink Cartridge, 750 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan ink for Brother MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65BK Premium Compatible High-Yield Ink Cartridge, 900 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black ink for Brother MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65HYM Genuine Brother High-Yield Ink Cartridge, 750 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta inkjet for MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>LC65M Premium Compatible High-Yield Ink Cartridge, 750 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta ink for Brother MFC5890cn, MFC5895cw, MFC6490cw, 6890cdw.</t>
+  </si>
+  <si>
+    <t>PC401 Genuine Brother Film Ribbon Cartridge</t>
+  </si>
+  <si>
+    <t>Genuine Brother film ribbon cartridge for PPF560Mc, PPF580Mc, MFC660mc. Designed to ensure that every page looks crisp. Designed to install quickly and easily, letting you get back to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC11CL Genuine Brother Ink Cartridge, 370 Page-Yield, Color </t>
+  </si>
+  <si>
+    <t>Genuine Brother color ink for Brother MFC7050c. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC11PH Genuine Brother Photo Ink Cartridge, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother photo ink for Brother MFC7050c. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC02BK Genuine Brother Ink Cartridge, 750 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black ink for MFC7150c, MFC7160c, MFC9100c. Change individual cartridges with the four-cartridge ink system. Receive sharp, crisp output with dye-based ink. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC02Y Genuine Brother Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ink for MFC7150c, MFC7160c, MFC9100c. Change individual cartridges with the four-cartridge ink system. Receive sharp, crisp output with dye-based ink. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC02M Genuine Brother Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ink for MFC7150c, MFC7160c, MFC9100c. Change individual cartridges with the four-cartridge ink system. Receive sharp, crisp output with dye-based ink. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC04M Genuine Brother Ink Cartridge, 410 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ink for MFC7300c, MFC7400c, MFC9200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink delivers vivacious color for an optimal presentation. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC04C Genuine Brother Ink Cartridge, 410 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ink for MFC7300c, MFC7400c, MFC9200c.  Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink delivers vivacious color for an optimal presentation. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC04BK Genuine Brother Ink Cartridge, 850 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black for MFC7300c, MFC7400c, MFC9200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink delivers vivacious color for an optimal presentation. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>LC02M Premium Compatible Ink Cartridge, 400 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Premium compatible magenta ink for Brother MFC7150c, MFC7160c, MFC9100c. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>LC02C Premium Compatible Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan ink for Brother MFC7150c, MFC7160c, MFC9100c. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>LC02BK Premium Compatible Ink Cartridge, 750 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible black ink for Brother MFC7150c, MFC7160c, MFC9100c. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>LC31C Premium Compatible Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible cyan inkjet for Brother MFC3220c, MFC3320cn, MFC3420c, MFC3820cn, PPF 2800, 2900, 3800, Fax 1820c, 1920cn. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC31BK Genuine Brother Ink Cartridge, 500 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>LC02Y Premium Compatible Ink Cartridge, 400 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Premium compatible yellow ink for Brother MFC7150c, MFC7160c, MFC9100c. OEM quality without the OEM price. Keeps your machine printing accurately. Simple to install and use.</t>
+  </si>
+  <si>
+    <t>LC04Y Genuine Brother Ink Cartridge, 410 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ink for MFC7300c, MFC7400c, MFC9200c. Easy-to-replace four-cartridge ink system allows you change only the empty ones. Dye-based ink delivers vivacious color for an optimal presentation. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC11BK Genuine Brother Ink Cartridge, 1000 Page-Yield, Black </t>
+  </si>
+  <si>
+    <t>Genuine Brother black ink for Brother MFC7050c. Change individual cartridges with the four-cartridge ink system. Hermetically sealed packaging ensures longer shelf life. Increase productivity and reduce costs when each cartridge delivers value and dependability.</t>
+  </si>
+  <si>
+    <t>LC02C Genuine Brother Ink Cartridge, 400 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ink for MFC7150c, MFC7160c, MFC9100c. Change individual cartridges with the four-cartridge ink system. Receive sharp, crisp output with dye-based ink. Shelf life is ensured to be longer with hermetically sealed packaging.</t>
+  </si>
+  <si>
+    <t>TN8550 Genuine Brother Toner Cartridge, 4000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother black multifunction toner for MFC8550. Brother toner constantly and consistently supplies impressive print quality. Each cartridge will perform when your requirements are most demanding. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>WT300CL Genuine Brother Waste Toner Unit, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner unit for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. Increase productivity and reduce costs when each cartridge delivers value and dependability. A cartridge that meets the highest-quality of standards, which means you'll always be satisfied. High-quality is what you'll experience in each cartridge.</t>
+  </si>
+  <si>
+    <t>BU300CL Genuine Brother Print Belt Kit, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother Print Belt Kit for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN310M Genuine Brother Toner Cartridge, 1500 Page-Yield, Magenta </t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.  OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN310BK Genuine Brother Toner Cartridge, 2500 Page-Yield, Black </t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>TN310C Genuine Brother Toner Cartridge, 1500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw. OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC753PKS Genuine Brother Inks, Box of 3, 1800 Page-Yield, Color </t>
+  </si>
+  <si>
+    <t>Genuine Brother Black inks for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document. Box of 3 color inks (1 each of Cyan, Magenta and Yellow).</t>
+  </si>
+  <si>
+    <t>LC752PKS Genuine Brother Inks, Box of 2, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother Black inks for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document. Box of 2 black inks.</t>
+  </si>
+  <si>
+    <t>LC75Y XL Genuine Brother Ink Cartridge, 600 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC75M XL Genuine Brother Ink Cartridge, 600 Page-Yield, Magenta </t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
+  </si>
+  <si>
+    <t>LC2072PKS Genuine Brother XXL Super High-Yield Ink Cartridge, Box of 2, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black super high-yield inks for MFCJ5520DW, MFCJ5620DW, MFCJ5720DW. Contains two black ink cartridges (LC207BK) 1200 page-yield each.</t>
+  </si>
+  <si>
+    <t>LC2053PKS Genuine Brother XXL Super High-Yield Ink Cartridge, Box of 3, 1200 Page-Yield, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield color ink cartridges for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. Contains one of each color, 1200 page-yield each. Cyan LC205C, magenta LC205M, yellow LC205Y.</t>
+  </si>
+  <si>
+    <t>LC205Y Genuine Brother XXL Super High-Yield Ink Cartridge, 1200 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother yellow super high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>LC205M Genuine Brother XXL Super High-Yield Ink Cartridge, 1200 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother magenta super high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>LC2033PKS Genuine Brother XL High-Yield Ink Cartridge, Box of 3, 550 Page-Yield, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother high-yield color ink cartridges for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. Contains one of each color, 550 page-yield each. Cyan LC203C, magenta LC203M, yellow LC203Y.</t>
+  </si>
+  <si>
+    <t>LC107BK XXL Premium Compatible Ink Cartridge, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Premium compatible super high-yield XXL Series black ink for use in Brother MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t>LC203Y Genuine Brother XL High-Yield Ink Cartridge, 550 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother yellow high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>TN310Y Genuine Brother Toner Cartridge, 1500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow toner for HL4150cdn, HL4570cdn, HL4570cdwt, MFC9970cdw, MFC9460cdn, MFC9560cdw.  OEM replacement toner delivers high-quality performance you can depend on.</t>
+  </si>
+  <si>
+    <t>LC1053PKS XXL Series Genuine Brother Ink Cartridge, Pack of 3, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) tri-color ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw. Contains one of each color.  Cyan LC105C, magenta LC105M, yellow LC105Y.</t>
+  </si>
+  <si>
+    <t>LC203M Genuine Brother XL High-Yield Ink Cartridge, 550 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother magenta high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>LC203C Genuine Brother XL High-Yield Ink Cartridge, 550 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Brother cyan high-yield ink cartridge for Brother MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
+  </si>
+  <si>
+    <t>LC105M XXL Series Genuine Brother Ink Cartridge, 1200 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Genuine Brother super high-yield (XXL Series) magenta ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
   </si>
   <si>
+    <t>LC203BK Genuine Brother Ink Cartridge, 550 Page-Yield, Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genuine Brother black high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
   </si>
   <si>
+    <t>LC207BK Genuine Brother XXL Super High-Yield Ink Cartridge, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother black super high-yield ink for MFCJ5520DW, MFCJ5620DW, MFCJ5720DW.</t>
   </si>
   <si>
+    <t>LC105C XXL Series Genuine Brother Ink Cartridge, 1200 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Genuine Brother super high-yield (XXL Series) cyan ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
   </si>
   <si>
+    <t>LC205C Genuine Brother XXL Super High-Yield Ink Cartridge, 1200 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genuine Brother cyan super high-yield ink cartridge for MFCJ4320DW, MFCJ4420DW, MFCJ4620DW, MFCJ5520DW and MFCJ5720DW. </t>
   </si>
   <si>
+    <t xml:space="preserve">LC75C XL Genuine Brother Ink Cartridge, 600 Page-Yield, Cyan </t>
+  </si>
+  <si>
     <t>Genuine Brother cyan XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC75BK XL Genuine Brother Ink Cartridge, 600 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother Black XL ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC71Y Genuine Brother Ink Cartridge, 300 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother yellow ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC71M Genuine Brother Ink Cartridge, 300 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Genuine Brother magenta ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC105M XXL Premium Compatible Ink Cartridge, 1200 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Premium compatible super high-yield XXL Series magenta ink for use in Brother MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
   </si>
   <si>
+    <t>LC105Y XXL Series Genuine Brother Ink Cartridge, 1200 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother super high-yield (XXL Series) yellow ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
   </si>
   <si>
+    <t>LC75Y XL Premium Compatible Ink Cartridge, 600 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium compatible yellow XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
   </si>
   <si>
+    <t>LC75M XL Premium Compatible Ink Cartridge, 600 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium compatible magenta XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
   </si>
   <si>
+    <t>LC71BK Genuine Brother Ink Cartridge, 300 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother black ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-J825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC71C Genuine Brother Ink Cartridge, 300 Page-Yield, Cyan</t>
+  </si>
+  <si>
     <t>Genuine Brother cyan ink for MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-J625dw, MFC-825dw, MFC-J835dw. Get the reliable OEM ink that will truly make a difference in your document.</t>
   </si>
   <si>
+    <t>LC1072PKS XXL Series Genuine Brother Ink Cartridge, Pack of 2, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother super high-yield (XXL Series) black ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw. Contains 2 black LC107BK.</t>
   </si>
   <si>
+    <t xml:space="preserve">LC75C XL Premium Compatible Ink Cartridge, 600 Page-Yield, Cyan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible cyan XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
+  </si>
+  <si>
+    <t>LC75BK XL Premium Compatible Ink Cartridge, 600 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium compatible black XL ink for Brother MFC-J280w, MFC-J425w, MFC-J430w, MFC-J435w, MFC-5910dw, MFC-J625dw, MFC-J6510dn, MFC-J6710dw, MFC-J6910dw, MFC-J825dw, MFC-J835dw. Get OEM quality with the value that a trusted compatible toner offers. Formulated to resist fading, keeping text and images crisp. Each cartridge is tested prior to shipment to ensure your satisfaction. </t>
+  </si>
+  <si>
+    <t>LC105C XXL Premium Compatible Ink Cartridge, 1200 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Premium compatible super high-yield XXL Series cyan ink for use in Brother MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t>LC107BK XXL Series Genuine Brother Ink Cartridge, 1200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother super high-yield (XXL Series) black ink for use in MFC-J4410dw, MFC-J4510dw, MFC-J4610dw, MFC-J4710dw.</t>
+  </si>
+  <si>
+    <t>LC3029Y Genuine Brother Ultra High-Yield Ink Cartridge, 1500 Page-Yield, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother yellow ultra high-yield ink cartridge for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
+  </si>
+  <si>
+    <t>LC30293PK Genuine Brother Ultra High-Yield Ink Cartridges, 3-Pack, Cyan, Magenta, Yellow</t>
+  </si>
+  <si>
+    <t>Genuine Brother 3 pack ultra high-yield ink cartridges for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
+  </si>
+  <si>
+    <t>LC3029C Genuine Brother Ultra High-Yield Ink Cartridge, 1500 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ultra high-yield ink cartridge for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
+  </si>
+  <si>
+    <t>LC3029BK Genuine Brother Ultra High-Yield Ink Cartridge, 3000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black ultra high-yield ink cartridge for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
+  </si>
+  <si>
+    <t>LC79M Genuine Brother Ink Cartridge, 1200 Page-Yield, Magenta</t>
+  </si>
+  <si>
+    <t>Genuine Brother magenta ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
+  </si>
+  <si>
+    <t>LC109BK Genuine Brother Ultra High-Yield Ink Cartridge, 2400 Page-Yield, Black</t>
+  </si>
+  <si>
     <t>Genuine Brother black ultra high-yield ink cartridge for MFC-J6520DW, MFC-J6720DW, MFC-J6920DW.</t>
   </si>
   <si>
+    <t>LC3029M Genuine Brother Ultra High-Yield Ink Cartridge, 1500 Page-Yield, Magenta</t>
+  </si>
+  <si>
     <t>Genuine Brother magenta ultra high-yield ink cartridge for MFC-J5830DW, MFC-J5930DW, MFC-J6535DW, MFC-J6935DW.</t>
   </si>
   <si>
+    <t>LC79C Genuine Brother Ink Cartridge, 1200 Page-Yield, Cyan</t>
+  </si>
+  <si>
+    <t>Genuine Brother cyan ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC79BK Genuine Brother Ink Cartridge, 2400 Page-Yield, Black </t>
+  </si>
+  <si>
     <t>Genuine Brother black ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
   </si>
   <si>
+    <t>LC79Y Genuine Brother Ink Cartridge, 1200 Page-Yield, Yellow</t>
+  </si>
+  <si>
     <t>Genuine Brother yellow ink for MFC-J5910dw, MFC-J6510dw, MFC-J6710dw, MFC-J6910dw. Get the reliable OEM ink that will truly make a difference in your document quality. With rich black printing and clear grayscale reproduction, 'll appreciate the professional results on every page. Designed to maximize the efficiency of your machine.</t>
   </si>
   <si>
@@ -2918,6 +4949,1146 @@
   </si>
   <si>
     <t>http://tonerprice.com/ink-toner/brother-ink-cartridges-toner/mfc/mfc-j875dw-656</t>
+  </si>
+  <si>
+    <t>WT320CL Genuine Brother Waste Toner Box, 50000 Page-Yield</t>
+  </si>
+  <si>
+    <t>Genuine Brother waste toner box for HL-L8250CDN, HL-L8350CDW, HL-L8350CDWT, HL-L9200CDW, HL-L9200CDWT, MFC-L8600CDW, MFC-L8850CDW, MFC-L9550CDW.</t>
+  </si>
+  <si>
+    <t>DR890 Genuine Brother Drum Unit, 50000 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother drum unit for HL-L6250DW, HL-L6400DW, HL-L6400DWT, MFC-L6750DW, MFC-L6900DW.</t>
+  </si>
+  <si>
+    <t>TN5000PF Genuine Brother Toner Cartridge, 2200 Page-Yield, Black</t>
+  </si>
+  <si>
+    <t>Genuine Brother black toner for Intellifax 2600, 2750, 3550, 3650, 3750, MFC2750, 4300, 4350, 4450, 4550, 4550PLUS, 4600, 4650, 6550Mc, 6650Mc, 7550Mc, 7650Mc, 7750.</t>
+  </si>
+  <si>
+    <t>Brother Model</t>
+  </si>
+  <si>
+    <t>Toner Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>image link</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrdr250_2_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr250_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpctn250_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn460ctp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn460_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn430_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc41y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc61cvp_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr400_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc41m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpcdr400_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc61y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc61m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpctn350_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr350_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpcdr350_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc51m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn350_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc51y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc61mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc61c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc61bk_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc613pks_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc61y_1_1_11.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc51c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc513pks_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc512pks_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20051y_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc612pks_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20051c_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20051_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc41bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc51bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20041y_2_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc41c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc61bk_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20041c_2_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20041m_2_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpctn360_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrdr360_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr360_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn360ctpp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr420_1_2_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn450_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn420_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn360_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn450cdp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn330_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn450c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr-420c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20051m_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc61c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr20041_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc51cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn250_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dps59460_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr500_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn570_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpcdr510_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn650c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr520_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrdr520_1_2_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr620c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn650_1_3_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr720.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr720c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn540_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr510_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn560_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn750cdp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn750c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn620_1_2_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn580_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn550_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn580ctp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpctn580_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpcdr500_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr620_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn750.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr210cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210y_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn720.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtwt100cl_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/p/dpsdpctn570_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivr83560_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn530_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr630c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn850c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr820.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr820c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn820.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn660.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn630.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn660cdp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103yxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103mxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103cxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn850.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc1032pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc1033pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtbu100cl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr110cl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115y_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn660c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn115bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn115y_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn115m_1_2_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn115c_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn115bk_1_2_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210c.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr630.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc103bkxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn110vp.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210yc_2.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210mc_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210bkc_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn110y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn110c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn110bk_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr300c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn300hl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr300_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn210cc_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn110m_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn9000c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn9500c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225yc.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/w/t/wt200cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225mc.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225cc.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225cc_1.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/w/t/wt4cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brother_ph11cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/w/t/wt220cl_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtbu200cl_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225yc_1.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225m_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr221cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221y_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221m_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn04y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn04m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225y_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221bk_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/u/bu220cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn221cvp_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn225mc_1.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn04bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn04mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtph12cl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn12y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn310m_1_1_3.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn310y_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn310bk_1_1_3.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn04c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn315vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn12m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn12bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr310cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn310c_1_1_3.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn12cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn12c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr600c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn100hl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn670_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn780.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr600_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn670_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn780c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn200hl_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr200_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn700_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr200c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtdr700_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr700c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrtn700_1_2_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn1700c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn1700_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn880c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/w/t/wt320cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn890.png</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr331cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn880ctp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433m_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn880.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn436y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn436m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn436bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433y_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/d/r/dr890.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn436c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn431m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/u/bu320cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn431vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn431bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn431c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn431y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn433b.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336bkvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn331c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn339cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn331y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn331m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn331bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336cvp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336kc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn336mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn-890c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtpc101_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/p/c/pc102rf.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/p/c/pc201c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc21m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc21c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc21bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc31y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc21y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc31m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc31hybk_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc31mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtpc201_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc31c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc31cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc21vp.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc31bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc31yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brttn5000pf_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc31bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/p/c/pc301c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtpc301_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrpc501_1_1_6.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc25y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc25yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc25mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc25bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc25m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc25cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc25bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc25c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc51hybk_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc65hyy_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc65hyc_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc653pks_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc65hybk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc65y_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc65c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc65m_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc652pks_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/v/ivrlc65bk_1_1_5.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc65hym_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc02bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc02m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc02bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc04m_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc11bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc04c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc02mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc11cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc11ph.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/p/c/pc401.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc02cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc02c_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc02y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc02yc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc04y_1_1_8.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc04bk_1_1_9.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn8550.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/u/bu300cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn310y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn310m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn310c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/w/t/wt300cl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/t/n/tn310bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc75m_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/m/imagescankc9p1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc75bk_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc1053pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc105yxxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc105mxxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc105cxxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc2072pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc203bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc205y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc205m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/i/m/imagescae8r00m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc207bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc2033pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc203m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc107bkxxl.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc1072pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc105mc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc105cc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc2053pks.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc71ys0426509_sc7.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc75c_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc203c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc75y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc75m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc71ms0426508_sc7.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc107bkc.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc75bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc205c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc71cs0426507_sc7.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc203y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc75y_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brother-lc71bk-black-ink-cartridge_147921.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc75c_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc79y_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc3029y.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc3029c.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc109bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc79bk_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc79m_1_1.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc30293pkk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc3029m.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/l/c/lc3029bk.jpg</t>
+  </si>
+  <si>
+    <t>http://tonerprice.com/media/catalog/product/cache/1/image/228x228/9df78eab33525d08d6e5fb8d27136e95/b/r/brtlc79c_1_1.jpg</t>
   </si>
 </sst>
 </file>
@@ -3236,678 +6407,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I415" sqref="I415"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D1" s="1">
-        <v>24.81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>957</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>955</v>
-      </c>
-      <c r="D3" s="1">
-        <v>46.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>956</v>
-      </c>
-      <c r="D4" s="1">
-        <v>28.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>939</v>
-      </c>
-      <c r="D5" s="1">
-        <v>28.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>940</v>
-      </c>
-      <c r="D6" s="1">
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>941</v>
-      </c>
-      <c r="D7" s="1">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>942</v>
-      </c>
-      <c r="D8" s="1">
-        <v>28.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>943</v>
-      </c>
-      <c r="D9" s="1">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>944</v>
-      </c>
-      <c r="D10" s="1">
-        <v>18.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>945</v>
-      </c>
-      <c r="D11" s="1">
-        <v>31.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>946</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>947</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>948</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>949</v>
-      </c>
-      <c r="D15" s="1">
-        <v>28.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>950</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>951</v>
-      </c>
-      <c r="D17" s="1">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>952</v>
-      </c>
-      <c r="D18" s="1">
-        <v>18.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>953</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>954</v>
-      </c>
-      <c r="D20" s="1">
-        <v>68.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>922</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45.89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>923</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>924</v>
-      </c>
-      <c r="D23" s="1">
-        <v>103.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
-        <v>925</v>
-      </c>
-      <c r="D24" s="1">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
-        <v>926</v>
-      </c>
-      <c r="D25" s="1">
-        <v>89.62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>927</v>
-      </c>
-      <c r="D26" s="1">
-        <v>78.34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
-        <v>928</v>
-      </c>
-      <c r="D27" s="1">
-        <v>78.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
-        <v>929</v>
-      </c>
-      <c r="D28" s="1">
-        <v>520.55999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>930</v>
-      </c>
-      <c r="D29" s="1">
-        <v>51.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
-        <v>931</v>
-      </c>
-      <c r="D30" s="1">
-        <v>69.84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>932</v>
-      </c>
-      <c r="D31" s="1">
-        <v>51.73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>933</v>
-      </c>
-      <c r="D32" s="1">
-        <v>184.96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>934</v>
-      </c>
-      <c r="D33" s="1">
-        <v>206.94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
-        <v>935</v>
-      </c>
-      <c r="D34" s="1">
-        <v>167.49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
-        <v>936</v>
-      </c>
-      <c r="D35" s="1">
-        <v>78.34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
-        <v>937</v>
-      </c>
-      <c r="D36" s="1">
-        <v>31.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
-        <v>938</v>
-      </c>
-      <c r="D37" s="1">
-        <v>80.92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
-        <v>915</v>
-      </c>
-      <c r="D38" s="1">
-        <v>178.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
-        <v>914</v>
-      </c>
-      <c r="D39" s="1">
-        <v>178.76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
-        <v>916</v>
-      </c>
-      <c r="D40" s="1">
-        <v>133.58000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
-        <v>915</v>
-      </c>
-      <c r="D41" s="1">
-        <v>95.73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
-        <v>917</v>
-      </c>
-      <c r="D42" s="1">
-        <v>537.86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
-        <v>916</v>
-      </c>
-      <c r="D43" s="1">
-        <v>83.56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
-        <v>918</v>
-      </c>
-      <c r="D44" s="1">
-        <v>82.07</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" t="s">
-        <v>919</v>
-      </c>
-      <c r="D45" s="1">
-        <v>82.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="C46" t="s">
-        <v>920</v>
-      </c>
-      <c r="D46" s="1">
-        <v>38.340000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D47" s="1">
-        <v>368.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -6989,10 +9878,10 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>959</v>
+        <v>1636</v>
       </c>
       <c r="B433" t="s">
-        <v>960</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7005,10 +9894,10 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>961</v>
+        <v>1638</v>
       </c>
       <c r="B435" t="s">
-        <v>962</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7210,15 +10099,5489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18.47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C4" t="s">
+        <v>990</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C6" t="s">
+        <v>935</v>
+      </c>
+      <c r="D6" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>936</v>
+      </c>
+      <c r="C8" t="s">
+        <v>937</v>
+      </c>
+      <c r="D8" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C9" t="s">
+        <v>962</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18.47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41.09</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69.59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>114.71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>964</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18.47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D15" s="1">
+        <v>58.83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>967</v>
+      </c>
+      <c r="C16" t="s">
+        <v>968</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>115.37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="1">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>971</v>
+      </c>
+      <c r="C19" t="s">
+        <v>972</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D20" s="1">
+        <v>51.31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D21" s="1">
+        <v>90.38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>924</v>
+      </c>
+      <c r="C23" t="s">
+        <v>925</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>926</v>
+      </c>
+      <c r="C24" t="s">
+        <v>927</v>
+      </c>
+      <c r="D24" s="1">
+        <v>33.01</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>942</v>
+      </c>
+      <c r="C25" t="s">
+        <v>943</v>
+      </c>
+      <c r="D25" s="1">
+        <v>55.87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>932</v>
+      </c>
+      <c r="C26" t="s">
+        <v>933</v>
+      </c>
+      <c r="D26" s="1">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>940</v>
+      </c>
+      <c r="C27" t="s">
+        <v>941</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D28" s="1">
+        <v>54.82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D29" s="1">
+        <v>48.44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" t="s">
+        <v>958</v>
+      </c>
+      <c r="D30" s="1">
+        <v>18.55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>914</v>
+      </c>
+      <c r="C31" t="s">
+        <v>915</v>
+      </c>
+      <c r="D31" s="1">
+        <v>18.55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>938</v>
+      </c>
+      <c r="C32" t="s">
+        <v>939</v>
+      </c>
+      <c r="D32" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>922</v>
+      </c>
+      <c r="C33" t="s">
+        <v>923</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>959</v>
+      </c>
+      <c r="C34" t="s">
+        <v>960</v>
+      </c>
+      <c r="D34" s="1">
+        <v>53.95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>975</v>
+      </c>
+      <c r="C35" t="s">
+        <v>976</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D36" s="1">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>944</v>
+      </c>
+      <c r="C38" t="s">
+        <v>945</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>991</v>
+      </c>
+      <c r="C39" t="s">
+        <v>992</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>918</v>
+      </c>
+      <c r="C40" t="s">
+        <v>919</v>
+      </c>
+      <c r="D40" s="1">
+        <v>198.94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>946</v>
+      </c>
+      <c r="C41" t="s">
+        <v>947</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>948</v>
+      </c>
+      <c r="C42" t="s">
+        <v>949</v>
+      </c>
+      <c r="D42" s="1">
+        <v>80.72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>950</v>
+      </c>
+      <c r="C43" t="s">
+        <v>951</v>
+      </c>
+      <c r="D43" s="1">
+        <v>73.56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>987</v>
+      </c>
+      <c r="C44" t="s">
+        <v>988</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>920</v>
+      </c>
+      <c r="C45" t="s">
+        <v>921</v>
+      </c>
+      <c r="D45" s="1">
+        <v>31.32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>997</v>
+      </c>
+      <c r="C46" t="s">
+        <v>998</v>
+      </c>
+      <c r="D46" s="1">
+        <v>36.82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>965</v>
+      </c>
+      <c r="C47" t="s">
+        <v>966</v>
+      </c>
+      <c r="D47" s="1">
+        <v>33.51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>981</v>
+      </c>
+      <c r="C48" t="s">
+        <v>982</v>
+      </c>
+      <c r="D48" s="1">
+        <v>250.54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C49" t="s">
+        <v>956</v>
+      </c>
+      <c r="D49" s="1">
+        <v>18.55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>983</v>
+      </c>
+      <c r="C50" t="s">
+        <v>984</v>
+      </c>
+      <c r="D50" s="1">
+        <v>56.89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>979</v>
+      </c>
+      <c r="C51" t="s">
+        <v>980</v>
+      </c>
+      <c r="D51" s="1">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>952</v>
+      </c>
+      <c r="C52" t="s">
+        <v>953</v>
+      </c>
+      <c r="D52" s="1">
+        <v>41.09</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>995</v>
+      </c>
+      <c r="C53" t="s">
+        <v>996</v>
+      </c>
+      <c r="D53" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>993</v>
+      </c>
+      <c r="C54" t="s">
+        <v>994</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D55" s="1">
+        <v>221.51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>954</v>
+      </c>
+      <c r="C56" t="s">
+        <v>949</v>
+      </c>
+      <c r="D56" s="1">
+        <v>117.6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>985</v>
+      </c>
+      <c r="C57" t="s">
+        <v>986</v>
+      </c>
+      <c r="D57" s="1">
+        <v>64.47</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D58" s="1">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>916</v>
+      </c>
+      <c r="C59" t="s">
+        <v>917</v>
+      </c>
+      <c r="D59" s="1">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D60" s="1">
+        <v>68.12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D61" s="1">
+        <v>28.26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D62" s="1">
+        <v>238.01</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D63" s="1">
+        <v>71.05</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D64" s="1">
+        <v>73.17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D65" s="1">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D66" s="1">
+        <v>171.58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D67" s="1">
+        <v>76.47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D68" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D69" s="1">
+        <v>214.09</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D70" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D71" s="1">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D72" s="1">
+        <v>60.83</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D73" s="1">
+        <v>79.61</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D74" s="1">
+        <v>128.72999999999999</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D75" s="1">
+        <v>102.61</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D76" s="1">
+        <v>85.33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43.22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D78" s="1">
+        <v>85.04</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D79" s="1">
+        <v>161.07</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D80" s="1">
+        <v>135.38999999999999</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D81" s="1">
+        <v>170.03</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D82" s="1">
+        <v>82.07</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D83" s="1">
+        <v>82.07</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D84" s="1">
+        <v>86.23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D85" s="1">
+        <v>30.69</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43.22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43.22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D88" s="1">
+        <v>90.17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45.66</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D90" s="1">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D91" s="1">
+        <v>170.23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D92" s="1">
+        <v>51.01</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D93" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D94" s="1">
+        <v>94.58</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D95" s="1">
+        <v>61.96</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D96" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D97" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D98" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D99" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D100" s="1">
+        <v>136</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D101" s="1">
+        <v>55.31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D102" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D105" s="1">
+        <v>160.44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D106" s="1">
+        <v>269.76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D107" s="1">
+        <v>243.95</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D108" s="1">
+        <v>178.76</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D109" s="1">
+        <v>178.76</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D110" s="1">
+        <v>178.76</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D111" s="1">
+        <v>537.86</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D112" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D114" s="1">
+        <v>28.68</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D115" s="1">
+        <v>133.58000000000001</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D116" s="1">
+        <v>67.44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D117" s="1">
+        <v>67.44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D118" s="1">
+        <v>67.44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D119" s="1">
+        <v>67.44</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D120" s="1">
+        <v>82.07</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D121" s="1">
+        <v>76.81</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D122" s="1">
+        <v>145.65</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D123" s="1">
+        <v>332.37</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D124" s="1">
+        <v>31.32</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D125" s="1">
+        <v>368.75</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D126" s="1">
+        <v>52.72</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D127" s="1">
+        <v>52.72</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D128" s="1">
+        <v>52.72</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D129" s="1">
+        <v>203.5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D130" s="1">
+        <v>95.73</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D131" s="1">
+        <v>95.73</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D132" s="1">
+        <v>83.56</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D133" s="1">
+        <v>143.94</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D134" s="1">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D135" s="1">
+        <v>204.61</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D136" s="1">
+        <v>52.72</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D137" s="1">
+        <v>95.73</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D138" s="1">
+        <v>51.29</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D139" s="1">
+        <v>61.53</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D140" s="1">
+        <v>49.55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D141" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D142" s="1">
+        <v>31.96</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D143" s="1">
+        <v>636.72</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D144" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D145" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D146" s="1">
+        <v>42.89</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D147" s="1">
+        <v>23.08</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D148" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D149" s="1">
+        <v>490.25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D150" s="1">
+        <v>37.83</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D151" s="1">
+        <v>144.13999999999999</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D152" s="1">
+        <v>387.44</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D153" s="1">
+        <v>42.89</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D154" s="1">
+        <v>109.21</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D155" s="1">
+        <v>180.48</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D156" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D157" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D158" s="1">
+        <v>240.77</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D159" s="1">
+        <v>240.77</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D160" s="1">
+        <v>109.21</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D161" s="1">
+        <v>94.02</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D162" s="1">
+        <v>884.55</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D163" s="1">
+        <v>109.21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D164" s="1">
+        <v>141.32</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D165" s="1">
+        <v>158.21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D166" s="1">
+        <v>112.06</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D167" s="1">
+        <v>112.06</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D168" s="1">
+        <v>42.89</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D169" s="1">
+        <v>247.71</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D170" s="1">
+        <v>112.06</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D171" s="1">
+        <v>112.06</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>204</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D172" s="1">
+        <v>542.14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D173" s="1">
+        <v>131</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D174" s="1">
+        <v>131</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D175" s="1">
+        <v>131</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D176" s="1">
+        <v>131.07</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D177" s="1">
+        <v>197.77</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D178" s="1">
+        <v>76.03</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D179" s="1">
+        <v>76.03</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D180" s="1">
+        <v>76.03</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D181" s="1">
+        <v>304.13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>218</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D182" s="1">
+        <v>240.77</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D183" s="1">
+        <v>613.95000000000005</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D184" s="1">
+        <v>197.77</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D185" s="1">
+        <v>102.48</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D186" s="1">
+        <v>77.73</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D187" s="1">
+        <v>671.02</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D188" s="1">
+        <v>62.84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D189" s="1">
+        <v>370.28</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D190" s="1">
+        <v>193.85</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>228</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D191" s="1">
+        <v>102.48</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D192" s="1">
+        <v>76.03</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>242</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D193" s="1">
+        <v>102.48</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D194" s="1">
+        <v>197.77</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>252</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D195" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D196" s="1">
+        <v>58.84</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D197" s="1">
+        <v>144.91999999999999</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D198" s="1">
+        <v>162.07</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D199" s="1">
+        <v>197.15</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D200" s="1">
+        <v>48.84</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>278</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D201" s="1">
+        <v>76.47</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>286</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D202" s="1">
+        <v>42.29</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D203" s="1">
+        <v>250.54</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D204" s="1">
+        <v>136.19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D205" s="1">
+        <v>76.91</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>288</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D206" s="1">
+        <v>133.78</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>232</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D207" s="1">
+        <v>112.73</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>296</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D208" s="1">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D209" s="1">
+        <v>185.3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>318</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D210" s="1">
+        <v>509.58</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>308</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D211" s="1">
+        <v>30.52</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>290</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D212" s="1">
+        <v>42.87</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D213" s="1">
+        <v>238.08</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D214" s="1">
+        <v>250.36</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D215" s="1">
+        <v>143.65</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D216" s="1">
+        <v>80.92</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>314</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D217" s="1">
+        <v>171.33</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D218" s="1">
+        <v>167.49</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D219" s="1">
+        <v>235.2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D220" s="1">
+        <v>235.2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D221" s="1">
+        <v>112.45</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D222" s="1">
+        <v>171.33</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D223" s="1">
+        <v>217.47</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D224" s="1">
+        <v>622.72</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D225" s="1">
+        <v>235.2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>324</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D226" s="1">
+        <v>103.49</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D227" s="1">
+        <v>200.66</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D228" s="1">
+        <v>184.96</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D229" s="1">
+        <v>413.95</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D230" s="1">
+        <v>150.96</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D231" s="1">
+        <v>45.89</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D232" s="1">
+        <v>171.33</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D233" s="1">
+        <v>108.74</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D234" s="1">
+        <v>45.89</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D235" s="1">
+        <v>103.49</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D236" s="1">
+        <v>45.89</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D237" s="1">
+        <v>558.92999999999995</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D238" s="1">
+        <v>49.17</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D239" s="1">
+        <v>103.49</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D240" s="1">
+        <v>103.49</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D241" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D242" s="1">
+        <v>49.17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D243" s="1">
+        <v>150.96</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D244" s="1">
+        <v>143.65</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D245" s="1">
+        <v>150.96</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D246" s="1">
+        <v>520.55999999999995</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D247" s="1">
+        <v>106.06</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D248" s="1">
+        <v>78.34</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D249" s="1">
+        <v>49.17</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D250" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D251" s="1">
+        <v>143.65</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D252" s="1">
+        <v>44.24</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D253" s="1">
+        <v>51.73</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D254" s="1">
+        <v>191.73</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D255" s="1">
+        <v>78.34</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D256" s="1">
+        <v>78.34</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D257" s="1">
+        <v>51.73</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D258" s="1">
+        <v>69.84</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D259" s="1">
+        <v>206.94</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D260" s="1">
+        <v>51.73</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D261" s="1">
+        <v>51.73</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D262" s="1">
+        <v>31.94</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>364</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D263" s="1">
+        <v>53.48</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>362</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D264" s="1">
+        <v>88.93</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>332</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D265" s="1">
+        <v>24.54</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>360</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D266" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D267" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D268" s="1">
+        <v>31.04</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D269" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>366</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D270" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D271" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D272" s="1">
+        <v>33.64</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>334</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D273" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D274" s="1">
+        <v>36.69</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D275" s="1">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D276" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>370</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D277" s="1">
+        <v>84.89</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>380</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D278" s="1">
+        <v>28.61</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>416</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D279" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>450</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D280" s="1">
+        <v>52.11</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D281" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D282" s="1">
+        <v>12.82</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>468</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D283" s="1">
+        <v>66.06</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>528</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D284" s="1">
+        <v>21.24</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>530</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D285" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>456</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D286" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D287" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>512</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D288" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D289" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>550</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D290" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D291" s="1">
+        <v>27.99</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>568</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D292" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>554</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D293" s="1">
+        <v>51.28</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D294" s="1">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D295" s="1">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D296" s="1">
+        <v>53.84</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>542</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D297" s="1">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D298" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>560</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D299" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D300" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>598</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D301" s="1">
+        <v>59.82</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D302" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>618</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D303" s="1">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>632</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D304" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>620</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D305" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D306" s="1">
+        <v>18.66</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D307" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>628</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D308" s="1">
+        <v>55.34</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D309" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D310" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D311" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D312" s="1">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D313" s="1">
+        <v>48.79</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D314" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>636</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D315" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>642</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D316" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>646</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D317" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D318" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D319" s="1">
+        <v>23.95</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>734</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D320" s="1">
+        <v>44.16</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>746</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D321" s="1">
+        <v>154.16</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D322" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D323" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>748</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D324" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>788</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D325" s="1">
+        <v>28.61</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>754</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D326" s="1">
+        <v>67.78</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D327" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D328" s="1">
+        <v>49.13</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D329" s="1">
+        <v>31.71</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D330" s="1">
+        <v>68.97</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D331" s="1">
+        <v>28.82</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D332" s="1">
+        <v>28.82</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>790</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D333" s="1">
+        <v>28.82</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D334" s="1">
+        <v>62.69</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D335" s="1">
+        <v>28.25</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>772</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D336" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D337" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D338" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D339" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D340" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D341" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D342" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D343" s="1">
+        <v>68.05</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D344" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D345" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>782</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D346" s="1">
+        <v>73.67</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D347" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D348" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D349" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D350" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D351" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="E351" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D352" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="E352" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D353" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="E353" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D354" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="E354" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D355" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="E355" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D356" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="E356" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D357" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="E357" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D358" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="E358" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D359" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="E359" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>806</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D360" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="E360" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>812</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D361" s="1">
+        <v>24.81</v>
+      </c>
+      <c r="E361" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>808</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D362" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="E362" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>818</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D363" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="E363" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D364" s="1">
+        <v>46.14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>848</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D365" s="1">
+        <v>42.91</v>
+      </c>
+      <c r="E365" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>860</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D366" s="1">
+        <v>24.81</v>
+      </c>
+      <c r="E366" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>862</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D367" s="1">
+        <v>80.45</v>
+      </c>
+      <c r="E367" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D368" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="E368" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>832</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D369" s="1">
+        <v>42.37</v>
+      </c>
+      <c r="E369" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D370" s="1">
+        <v>24.81</v>
+      </c>
+      <c r="E370" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>908</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
